--- a/spliting_positive_negative_21-6-2023/ka-/collect data_ka-.xlsx
+++ b/spliting_positive_negative_21-6-2023/ka-/collect data_ka-.xlsx
@@ -1,17 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\ReposEda\DrSamahPrjs\ANN\ANN\spliting_positive_negative_21-6-2023\ka-\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C032DD3-6B5A-41DD-B7B9-7F17E77CA0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="19815" windowHeight="7650"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -95,13 +114,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -139,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -173,6 +200,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -207,9 +235,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -382,16 +411,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1083"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -416,7 +445,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B2">
         <v>7.7</v>
@@ -439,7 +468,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B3">
         <v>7.7</v>
@@ -462,7 +491,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B4">
         <v>7.7</v>
@@ -485,7 +514,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B5">
         <v>7.7</v>
@@ -508,7 +537,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B6">
         <v>7.7</v>
@@ -531,7 +560,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B7">
         <v>7.7</v>
@@ -554,7 +583,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B8">
         <v>7.7</v>
@@ -577,7 +606,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B9">
         <v>7.7</v>
@@ -600,7 +629,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B10">
         <v>7.7</v>
@@ -623,7 +652,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B11">
         <v>7.7</v>
@@ -646,7 +675,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B12">
         <v>7.7</v>
@@ -669,7 +698,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B13">
         <v>7.7</v>
@@ -692,7 +721,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B14">
         <v>7.7</v>
@@ -715,7 +744,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B15">
         <v>7.7</v>
@@ -738,7 +767,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B16">
         <v>7.7</v>
@@ -761,7 +790,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B17">
         <v>7.7</v>
@@ -784,7 +813,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B18">
         <v>7.7</v>
@@ -807,7 +836,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B19">
         <v>7.7</v>
@@ -830,7 +859,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B20">
         <v>7.7</v>
@@ -853,7 +882,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B21">
         <v>7.7</v>
@@ -876,7 +905,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B22">
         <v>7.7</v>
@@ -899,7 +928,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B23">
         <v>7.7</v>
@@ -922,7 +951,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B24">
         <v>7.7</v>
@@ -945,7 +974,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B25">
         <v>7.7</v>
@@ -968,7 +997,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B26">
         <v>7.7</v>
@@ -991,7 +1020,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B27">
         <v>7.7</v>
@@ -1014,7 +1043,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B28">
         <v>7.7</v>
@@ -1037,7 +1066,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B29">
         <v>7.7</v>
@@ -1060,7 +1089,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B30">
         <v>7.7</v>
@@ -1083,7 +1112,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B31">
         <v>7.7</v>
@@ -1106,7 +1135,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B32">
         <v>7.7</v>
@@ -1129,7 +1158,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B33">
         <v>7.7</v>
@@ -1152,7 +1181,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B34">
         <v>7.7</v>
@@ -1175,7 +1204,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B35">
         <v>7.7</v>
@@ -1198,7 +1227,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B36">
         <v>7.7</v>
@@ -1221,7 +1250,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B37">
         <v>7.7</v>
@@ -1244,7 +1273,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B38">
         <v>7.7</v>
@@ -1267,7 +1296,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B39">
         <v>7.7</v>
@@ -1290,7 +1319,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B40">
         <v>7.7</v>
@@ -1313,7 +1342,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B41">
         <v>7.7</v>
@@ -1336,7 +1365,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B42">
         <v>7.7</v>
@@ -1359,7 +1388,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B43">
         <v>7.7</v>
@@ -1382,7 +1411,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B44">
         <v>7.7</v>
@@ -1405,7 +1434,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B45">
         <v>7.7</v>
@@ -1428,7 +1457,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B46">
         <v>7.7</v>
@@ -1451,7 +1480,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B47">
         <v>7.7</v>
@@ -1474,7 +1503,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B48">
         <v>7.7</v>
@@ -1497,7 +1526,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B49">
         <v>7.7</v>
@@ -1520,7 +1549,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B50">
         <v>7.7</v>
@@ -1543,7 +1572,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B51">
         <v>7.7</v>
@@ -1566,7 +1595,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B52">
         <v>7.7</v>
@@ -1589,7 +1618,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B53">
         <v>7.7</v>
@@ -1612,7 +1641,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B54">
         <v>7.7</v>
@@ -1635,7 +1664,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B55">
         <v>7.7</v>
@@ -1658,7 +1687,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B56">
         <v>7.7</v>
@@ -1681,7 +1710,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B57">
         <v>7.7</v>
@@ -1704,7 +1733,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B58">
         <v>7.7</v>
@@ -1727,7 +1756,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B59">
         <v>7.7</v>
@@ -1750,7 +1779,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B60">
         <v>7.7</v>
@@ -1773,7 +1802,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B61">
         <v>7.7</v>
@@ -1796,7 +1825,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B62">
         <v>7.7</v>
@@ -1819,7 +1848,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B63">
         <v>7.7</v>
@@ -1842,7 +1871,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B64">
         <v>7.7</v>
@@ -1865,7 +1894,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B65">
         <v>7.7</v>
@@ -1888,7 +1917,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B66">
         <v>7.7</v>
@@ -1911,7 +1940,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B67">
         <v>7.7</v>
@@ -1934,7 +1963,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B68">
         <v>7.7</v>
@@ -1957,7 +1986,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B69">
         <v>7.7</v>
@@ -1980,7 +2009,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B70">
         <v>7.7</v>
@@ -2003,7 +2032,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B71">
         <v>7.7</v>
@@ -2026,7 +2055,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B72">
         <v>7.7</v>
@@ -2049,7 +2078,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B73">
         <v>7.7</v>
@@ -2072,7 +2101,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B74">
         <v>7.7</v>
@@ -2095,7 +2124,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B75">
         <v>7.7</v>
@@ -2118,7 +2147,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B76">
         <v>7.7</v>
@@ -2141,7 +2170,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B77">
         <v>7.7</v>
@@ -2164,7 +2193,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B78">
         <v>7.7</v>
@@ -2187,7 +2216,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B79">
         <v>7.7</v>
@@ -2210,7 +2239,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B80">
         <v>7.7</v>
@@ -2233,7 +2262,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B81">
         <v>7.7</v>
@@ -2256,7 +2285,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B82">
         <v>7.7</v>
@@ -2279,7 +2308,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B83">
         <v>7.7</v>
@@ -2302,7 +2331,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B84">
         <v>7.7</v>
@@ -2325,7 +2354,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B85">
         <v>7.7</v>
@@ -2348,7 +2377,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B86">
         <v>7.7</v>
@@ -2371,7 +2400,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B87">
         <v>7.7</v>
@@ -2394,7 +2423,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B88">
         <v>7.7</v>
@@ -2417,7 +2446,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B89">
         <v>7.7</v>
@@ -2440,7 +2469,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B90">
         <v>7.7</v>
@@ -2463,7 +2492,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B91">
         <v>7.7</v>
@@ -2486,7 +2515,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B92">
         <v>7.7</v>
@@ -2509,7 +2538,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B93">
         <v>7.7</v>
@@ -2532,7 +2561,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B94">
         <v>7.7</v>
@@ -2555,7 +2584,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B95">
         <v>7.7</v>
@@ -2578,7 +2607,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B96">
         <v>7.7</v>
@@ -2601,7 +2630,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B97">
         <v>7.7</v>
@@ -2624,7 +2653,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B98">
         <v>7.7</v>
@@ -2647,7 +2676,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B99">
         <v>7.7</v>
@@ -2670,7 +2699,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B100">
         <v>7.7</v>
@@ -2693,7 +2722,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B101">
         <v>7.7</v>
@@ -2716,7 +2745,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B102">
         <v>7.7</v>
@@ -2739,7 +2768,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B103">
         <v>7.7</v>
@@ -2762,7 +2791,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B104">
         <v>7.7</v>
@@ -2785,7 +2814,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B105">
         <v>7.7</v>
@@ -2808,7 +2837,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B106">
         <v>7.7</v>
@@ -2831,7 +2860,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B107">
         <v>7.7</v>
@@ -2854,7 +2883,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B108">
         <v>7.7</v>
@@ -2877,7 +2906,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B109">
         <v>7.7</v>
@@ -2900,7 +2929,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B110">
         <v>7.7</v>
@@ -2923,7 +2952,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B111">
         <v>7.7</v>
@@ -2946,7 +2975,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B112">
         <v>7.7</v>
@@ -2969,7 +2998,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B113">
         <v>7.7</v>
@@ -2992,7 +3021,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B114">
         <v>7.7</v>
@@ -3015,7 +3044,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B115">
         <v>7.7</v>
@@ -3038,7 +3067,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B116">
         <v>7.7</v>
@@ -3061,7 +3090,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B117">
         <v>7.7</v>
@@ -3084,7 +3113,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B118">
         <v>7.7</v>
@@ -3107,7 +3136,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B119">
         <v>7.7</v>
@@ -3130,7 +3159,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B120">
         <v>7.7</v>
@@ -3153,7 +3182,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B121">
         <v>7.7</v>
@@ -3176,7 +3205,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B122">
         <v>7.7</v>
@@ -3199,7 +3228,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B123">
         <v>7.7</v>
@@ -3222,7 +3251,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B124">
         <v>7.7</v>
@@ -3245,7 +3274,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B125">
         <v>7.7</v>
@@ -3268,7 +3297,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B126">
         <v>7.7</v>
@@ -3291,7 +3320,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B127">
         <v>7.7</v>
@@ -3314,7 +3343,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B128">
         <v>7.7</v>
@@ -3337,7 +3366,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B129">
         <v>7.7</v>
@@ -3360,7 +3389,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="A130">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B130">
         <v>7.7</v>
@@ -3383,7 +3412,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="A131">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B131">
         <v>7.7</v>
@@ -3406,7 +3435,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="A132">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B132">
         <v>7.7</v>
@@ -3429,7 +3458,7 @@
     </row>
     <row r="133" spans="1:7">
       <c r="A133">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B133">
         <v>7.7</v>
@@ -3452,7 +3481,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="A134">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B134">
         <v>7.7</v>
@@ -3475,7 +3504,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="A135">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B135">
         <v>7.7</v>
@@ -3498,7 +3527,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="A136">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B136">
         <v>7.7</v>
@@ -3521,7 +3550,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="A137">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B137">
         <v>7.7</v>
@@ -3544,7 +3573,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="A138">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B138">
         <v>7.7</v>
@@ -3567,7 +3596,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="A139">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B139">
         <v>7.7</v>
@@ -3590,7 +3619,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B140">
         <v>7.7</v>
@@ -3613,7 +3642,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="A141">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B141">
         <v>7.7</v>
@@ -3636,7 +3665,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B142">
         <v>7.7</v>
@@ -3659,7 +3688,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B143">
         <v>7.7</v>
@@ -3682,7 +3711,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B144">
         <v>7.7</v>
@@ -3705,7 +3734,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B145">
         <v>7.7</v>
@@ -3728,7 +3757,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B146">
         <v>7.7</v>
@@ -3751,7 +3780,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="A147">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B147">
         <v>7.7</v>
@@ -3774,7 +3803,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="A148">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B148">
         <v>7.7</v>
@@ -3797,7 +3826,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="A149">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B149">
         <v>7.7</v>
@@ -3820,7 +3849,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B150">
         <v>7.7</v>
@@ -3843,7 +3872,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B151">
         <v>7.7</v>
@@ -3866,7 +3895,7 @@
     </row>
     <row r="152" spans="1:7">
       <c r="A152">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B152">
         <v>7.7</v>
@@ -3889,7 +3918,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="A153">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B153">
         <v>7.7</v>
@@ -3912,7 +3941,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="A154">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B154">
         <v>7.7</v>
@@ -3935,7 +3964,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="A155">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B155">
         <v>7.7</v>
@@ -3958,7 +3987,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B156">
         <v>7.7</v>
@@ -3981,7 +4010,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="A157">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B157">
         <v>7.7</v>
@@ -4004,7 +4033,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="A158">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B158">
         <v>7.7</v>
@@ -4027,7 +4056,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="A159">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B159">
         <v>7.7</v>
@@ -4050,7 +4079,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B160">
         <v>7.7</v>
@@ -4073,7 +4102,7 @@
     </row>
     <row r="161" spans="1:7">
       <c r="A161">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B161">
         <v>7.7</v>
@@ -4096,7 +4125,7 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B162">
         <v>7.7</v>
@@ -4119,7 +4148,7 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B163">
         <v>7.7</v>
@@ -4142,7 +4171,7 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B164">
         <v>7.7</v>
@@ -4165,7 +4194,7 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B165">
         <v>7.7</v>
@@ -4188,7 +4217,7 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B166">
         <v>7.7</v>
@@ -4211,7 +4240,7 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B167">
         <v>7.7</v>
@@ -4234,7 +4263,7 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B168">
         <v>7.7</v>
@@ -4257,7 +4286,7 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B169">
         <v>7.7</v>
@@ -4280,7 +4309,7 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B170">
         <v>7.7</v>
@@ -4303,7 +4332,7 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B171">
         <v>7.7</v>
@@ -4326,7 +4355,7 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B172">
         <v>7.7</v>
@@ -4349,7 +4378,7 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B173">
         <v>7.7</v>
@@ -4372,7 +4401,7 @@
     </row>
     <row r="174" spans="1:7">
       <c r="A174">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B174">
         <v>7.7</v>
@@ -4395,7 +4424,7 @@
     </row>
     <row r="175" spans="1:7">
       <c r="A175">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B175">
         <v>7.7</v>
@@ -4418,7 +4447,7 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B176">
         <v>7.7</v>
@@ -4441,7 +4470,7 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B177">
         <v>7.7</v>
@@ -4464,7 +4493,7 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B178">
         <v>7.7</v>
@@ -4487,7 +4516,7 @@
     </row>
     <row r="179" spans="1:7">
       <c r="A179">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B179">
         <v>7.7</v>
@@ -4510,7 +4539,7 @@
     </row>
     <row r="180" spans="1:7">
       <c r="A180">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B180">
         <v>7.7</v>
@@ -4533,7 +4562,7 @@
     </row>
     <row r="181" spans="1:7">
       <c r="A181">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B181">
         <v>7.7</v>
@@ -4556,7 +4585,7 @@
     </row>
     <row r="182" spans="1:7">
       <c r="A182">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B182">
         <v>7.7</v>
@@ -4579,7 +4608,7 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B183">
         <v>7.7</v>
@@ -4602,7 +4631,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B184">
         <v>7.7</v>
@@ -4625,7 +4654,7 @@
     </row>
     <row r="185" spans="1:7">
       <c r="A185">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B185">
         <v>7.7</v>
@@ -4648,7 +4677,7 @@
     </row>
     <row r="186" spans="1:7">
       <c r="A186">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B186">
         <v>7.7</v>
@@ -4671,7 +4700,7 @@
     </row>
     <row r="187" spans="1:7">
       <c r="A187">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B187">
         <v>7.7</v>
@@ -4694,7 +4723,7 @@
     </row>
     <row r="188" spans="1:7">
       <c r="A188">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B188">
         <v>7.7</v>
@@ -4717,7 +4746,7 @@
     </row>
     <row r="189" spans="1:7">
       <c r="A189">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B189">
         <v>7.7</v>
@@ -4740,7 +4769,7 @@
     </row>
     <row r="190" spans="1:7">
       <c r="A190">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B190">
         <v>7.7</v>
@@ -4763,7 +4792,7 @@
     </row>
     <row r="191" spans="1:7">
       <c r="A191">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B191">
         <v>7.7</v>
@@ -4786,7 +4815,7 @@
     </row>
     <row r="192" spans="1:7">
       <c r="A192">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B192">
         <v>7.7</v>
@@ -4809,7 +4838,7 @@
     </row>
     <row r="193" spans="1:7">
       <c r="A193">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B193">
         <v>11.5</v>
@@ -4832,7 +4861,7 @@
     </row>
     <row r="194" spans="1:7">
       <c r="A194">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B194">
         <v>11.5</v>
@@ -4855,7 +4884,7 @@
     </row>
     <row r="195" spans="1:7">
       <c r="A195">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B195">
         <v>11.5</v>
@@ -4878,7 +4907,7 @@
     </row>
     <row r="196" spans="1:7">
       <c r="A196">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B196">
         <v>11.5</v>
@@ -4901,7 +4930,7 @@
     </row>
     <row r="197" spans="1:7">
       <c r="A197">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B197">
         <v>11.5</v>
@@ -4924,7 +4953,7 @@
     </row>
     <row r="198" spans="1:7">
       <c r="A198">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B198">
         <v>11.5</v>
@@ -4947,7 +4976,7 @@
     </row>
     <row r="199" spans="1:7">
       <c r="A199">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B199">
         <v>11.5</v>
@@ -4970,7 +4999,7 @@
     </row>
     <row r="200" spans="1:7">
       <c r="A200">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B200">
         <v>11.5</v>
@@ -4993,7 +5022,7 @@
     </row>
     <row r="201" spans="1:7">
       <c r="A201">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B201">
         <v>11.5</v>
@@ -5016,7 +5045,7 @@
     </row>
     <row r="202" spans="1:7">
       <c r="A202">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B202">
         <v>11.5</v>
@@ -5039,7 +5068,7 @@
     </row>
     <row r="203" spans="1:7">
       <c r="A203">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B203">
         <v>11.5</v>
@@ -5062,7 +5091,7 @@
     </row>
     <row r="204" spans="1:7">
       <c r="A204">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B204">
         <v>11.5</v>
@@ -5085,7 +5114,7 @@
     </row>
     <row r="205" spans="1:7">
       <c r="A205">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B205">
         <v>11.5</v>
@@ -5108,7 +5137,7 @@
     </row>
     <row r="206" spans="1:7">
       <c r="A206">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B206">
         <v>11.5</v>
@@ -5131,7 +5160,7 @@
     </row>
     <row r="207" spans="1:7">
       <c r="A207">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B207">
         <v>11.5</v>
@@ -5154,7 +5183,7 @@
     </row>
     <row r="208" spans="1:7">
       <c r="A208">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B208">
         <v>11.5</v>
@@ -5177,7 +5206,7 @@
     </row>
     <row r="209" spans="1:7">
       <c r="A209">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B209">
         <v>11.5</v>
@@ -5200,7 +5229,7 @@
     </row>
     <row r="210" spans="1:7">
       <c r="A210">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B210">
         <v>11.5</v>
@@ -5223,7 +5252,7 @@
     </row>
     <row r="211" spans="1:7">
       <c r="A211">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B211">
         <v>11.5</v>
@@ -5246,7 +5275,7 @@
     </row>
     <row r="212" spans="1:7">
       <c r="A212">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B212">
         <v>11.5</v>
@@ -5269,7 +5298,7 @@
     </row>
     <row r="213" spans="1:7">
       <c r="A213">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B213">
         <v>11.5</v>
@@ -5292,7 +5321,7 @@
     </row>
     <row r="214" spans="1:7">
       <c r="A214">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B214">
         <v>11.5</v>
@@ -5315,7 +5344,7 @@
     </row>
     <row r="215" spans="1:7">
       <c r="A215">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B215">
         <v>11.5</v>
@@ -5338,7 +5367,7 @@
     </row>
     <row r="216" spans="1:7">
       <c r="A216">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B216">
         <v>11.5</v>
@@ -5361,7 +5390,7 @@
     </row>
     <row r="217" spans="1:7">
       <c r="A217">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B217">
         <v>11.5</v>
@@ -5384,7 +5413,7 @@
     </row>
     <row r="218" spans="1:7">
       <c r="A218">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B218">
         <v>11.5</v>
@@ -5407,7 +5436,7 @@
     </row>
     <row r="219" spans="1:7">
       <c r="A219">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B219">
         <v>11.5</v>
@@ -5430,7 +5459,7 @@
     </row>
     <row r="220" spans="1:7">
       <c r="A220">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B220">
         <v>11.5</v>
@@ -5453,7 +5482,7 @@
     </row>
     <row r="221" spans="1:7">
       <c r="A221">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B221">
         <v>11.5</v>
@@ -5476,7 +5505,7 @@
     </row>
     <row r="222" spans="1:7">
       <c r="A222">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B222">
         <v>11.5</v>
@@ -5499,7 +5528,7 @@
     </row>
     <row r="223" spans="1:7">
       <c r="A223">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B223">
         <v>11.5</v>
@@ -5522,7 +5551,7 @@
     </row>
     <row r="224" spans="1:7">
       <c r="A224">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B224">
         <v>11.5</v>
@@ -5545,7 +5574,7 @@
     </row>
     <row r="225" spans="1:7">
       <c r="A225">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B225">
         <v>11.5</v>
@@ -5568,7 +5597,7 @@
     </row>
     <row r="226" spans="1:7">
       <c r="A226">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B226">
         <v>11.5</v>
@@ -5591,7 +5620,7 @@
     </row>
     <row r="227" spans="1:7">
       <c r="A227">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B227">
         <v>11.5</v>
@@ -5614,7 +5643,7 @@
     </row>
     <row r="228" spans="1:7">
       <c r="A228">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B228">
         <v>11.5</v>
@@ -5637,7 +5666,7 @@
     </row>
     <row r="229" spans="1:7">
       <c r="A229">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B229">
         <v>11.5</v>
@@ -5660,7 +5689,7 @@
     </row>
     <row r="230" spans="1:7">
       <c r="A230">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B230">
         <v>11.5</v>
@@ -5683,7 +5712,7 @@
     </row>
     <row r="231" spans="1:7">
       <c r="A231">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B231">
         <v>11.5</v>
@@ -5706,7 +5735,7 @@
     </row>
     <row r="232" spans="1:7">
       <c r="A232">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B232">
         <v>11.5</v>
@@ -5729,7 +5758,7 @@
     </row>
     <row r="233" spans="1:7">
       <c r="A233">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B233">
         <v>11.5</v>
@@ -5752,7 +5781,7 @@
     </row>
     <row r="234" spans="1:7">
       <c r="A234">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B234">
         <v>11.5</v>
@@ -5775,7 +5804,7 @@
     </row>
     <row r="235" spans="1:7">
       <c r="A235">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B235">
         <v>11.5</v>
@@ -5798,7 +5827,7 @@
     </row>
     <row r="236" spans="1:7">
       <c r="A236">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B236">
         <v>11.5</v>
@@ -5821,7 +5850,7 @@
     </row>
     <row r="237" spans="1:7">
       <c r="A237">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B237">
         <v>11.5</v>
@@ -5844,7 +5873,7 @@
     </row>
     <row r="238" spans="1:7">
       <c r="A238">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B238">
         <v>11.5</v>
@@ -5867,7 +5896,7 @@
     </row>
     <row r="239" spans="1:7">
       <c r="A239">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B239">
         <v>11.5</v>
@@ -5890,7 +5919,7 @@
     </row>
     <row r="240" spans="1:7">
       <c r="A240">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B240">
         <v>11.5</v>
@@ -5913,7 +5942,7 @@
     </row>
     <row r="241" spans="1:7">
       <c r="A241">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B241">
         <v>11.5</v>
@@ -5936,7 +5965,7 @@
     </row>
     <row r="242" spans="1:7">
       <c r="A242">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B242">
         <v>11.5</v>
@@ -5959,7 +5988,7 @@
     </row>
     <row r="243" spans="1:7">
       <c r="A243">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B243">
         <v>11.5</v>
@@ -5982,7 +6011,7 @@
     </row>
     <row r="244" spans="1:7">
       <c r="A244">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B244">
         <v>11.5</v>
@@ -6005,7 +6034,7 @@
     </row>
     <row r="245" spans="1:7">
       <c r="A245">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B245">
         <v>11.5</v>
@@ -6028,7 +6057,7 @@
     </row>
     <row r="246" spans="1:7">
       <c r="A246">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B246">
         <v>11.5</v>
@@ -6051,7 +6080,7 @@
     </row>
     <row r="247" spans="1:7">
       <c r="A247">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B247">
         <v>11.5</v>
@@ -6074,7 +6103,7 @@
     </row>
     <row r="248" spans="1:7">
       <c r="A248">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B248">
         <v>11.5</v>
@@ -6097,7 +6126,7 @@
     </row>
     <row r="249" spans="1:7">
       <c r="A249">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B249">
         <v>11.5</v>
@@ -6120,7 +6149,7 @@
     </row>
     <row r="250" spans="1:7">
       <c r="A250">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B250">
         <v>11.5</v>
@@ -6143,7 +6172,7 @@
     </row>
     <row r="251" spans="1:7">
       <c r="A251">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B251">
         <v>11.5</v>
@@ -6166,7 +6195,7 @@
     </row>
     <row r="252" spans="1:7">
       <c r="A252">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B252">
         <v>11.5</v>
@@ -6189,7 +6218,7 @@
     </row>
     <row r="253" spans="1:7">
       <c r="A253">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B253">
         <v>11.5</v>
@@ -6212,7 +6241,7 @@
     </row>
     <row r="254" spans="1:7">
       <c r="A254">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B254">
         <v>11.5</v>
@@ -6235,7 +6264,7 @@
     </row>
     <row r="255" spans="1:7">
       <c r="A255">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B255">
         <v>11.5</v>
@@ -6258,7 +6287,7 @@
     </row>
     <row r="256" spans="1:7">
       <c r="A256">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B256">
         <v>11.5</v>
@@ -6281,7 +6310,7 @@
     </row>
     <row r="257" spans="1:7">
       <c r="A257">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B257">
         <v>11.5</v>
@@ -6304,7 +6333,7 @@
     </row>
     <row r="258" spans="1:7">
       <c r="A258">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B258">
         <v>11.5</v>
@@ -6327,7 +6356,7 @@
     </row>
     <row r="259" spans="1:7">
       <c r="A259">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B259">
         <v>11.5</v>
@@ -6350,7 +6379,7 @@
     </row>
     <row r="260" spans="1:7">
       <c r="A260">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B260">
         <v>11.5</v>
@@ -6373,7 +6402,7 @@
     </row>
     <row r="261" spans="1:7">
       <c r="A261">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B261">
         <v>11.5</v>
@@ -6396,7 +6425,7 @@
     </row>
     <row r="262" spans="1:7">
       <c r="A262">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B262">
         <v>11.5</v>
@@ -6419,7 +6448,7 @@
     </row>
     <row r="263" spans="1:7">
       <c r="A263">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B263">
         <v>11.5</v>
@@ -6442,7 +6471,7 @@
     </row>
     <row r="264" spans="1:7">
       <c r="A264">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B264">
         <v>11.5</v>
@@ -6465,7 +6494,7 @@
     </row>
     <row r="265" spans="1:7">
       <c r="A265">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B265">
         <v>11.5</v>
@@ -6488,7 +6517,7 @@
     </row>
     <row r="266" spans="1:7">
       <c r="A266">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B266">
         <v>11.5</v>
@@ -6511,7 +6540,7 @@
     </row>
     <row r="267" spans="1:7">
       <c r="A267">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B267">
         <v>11.5</v>
@@ -6534,7 +6563,7 @@
     </row>
     <row r="268" spans="1:7">
       <c r="A268">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B268">
         <v>11.5</v>
@@ -6557,7 +6586,7 @@
     </row>
     <row r="269" spans="1:7">
       <c r="A269">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B269">
         <v>11.5</v>
@@ -6580,7 +6609,7 @@
     </row>
     <row r="270" spans="1:7">
       <c r="A270">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B270">
         <v>11.5</v>
@@ -6603,7 +6632,7 @@
     </row>
     <row r="271" spans="1:7">
       <c r="A271">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B271">
         <v>11.5</v>
@@ -6626,7 +6655,7 @@
     </row>
     <row r="272" spans="1:7">
       <c r="A272">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B272">
         <v>11.5</v>
@@ -6649,7 +6678,7 @@
     </row>
     <row r="273" spans="1:7">
       <c r="A273">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B273">
         <v>11.5</v>
@@ -6672,7 +6701,7 @@
     </row>
     <row r="274" spans="1:7">
       <c r="A274">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B274">
         <v>11.5</v>
@@ -6695,7 +6724,7 @@
     </row>
     <row r="275" spans="1:7">
       <c r="A275">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B275">
         <v>11.5</v>
@@ -6718,7 +6747,7 @@
     </row>
     <row r="276" spans="1:7">
       <c r="A276">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B276">
         <v>11.5</v>
@@ -6741,7 +6770,7 @@
     </row>
     <row r="277" spans="1:7">
       <c r="A277">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B277">
         <v>11.5</v>
@@ -6764,7 +6793,7 @@
     </row>
     <row r="278" spans="1:7">
       <c r="A278">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B278">
         <v>11.5</v>
@@ -6787,7 +6816,7 @@
     </row>
     <row r="279" spans="1:7">
       <c r="A279">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B279">
         <v>11.5</v>
@@ -6810,7 +6839,7 @@
     </row>
     <row r="280" spans="1:7">
       <c r="A280">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B280">
         <v>11.5</v>
@@ -6833,7 +6862,7 @@
     </row>
     <row r="281" spans="1:7">
       <c r="A281">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B281">
         <v>11.5</v>
@@ -6856,7 +6885,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B282">
         <v>11.5</v>
@@ -6879,7 +6908,7 @@
     </row>
     <row r="283" spans="1:7">
       <c r="A283">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B283">
         <v>11.5</v>
@@ -6902,7 +6931,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B284">
         <v>11.5</v>
@@ -6925,7 +6954,7 @@
     </row>
     <row r="285" spans="1:7">
       <c r="A285">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B285">
         <v>11.5</v>
@@ -6948,7 +6977,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B286">
         <v>11.5</v>
@@ -6971,7 +7000,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B287">
         <v>11.5</v>
@@ -6994,7 +7023,7 @@
     </row>
     <row r="288" spans="1:7">
       <c r="A288">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B288">
         <v>11.5</v>
@@ -7017,7 +7046,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B289">
         <v>11.5</v>
@@ -7040,7 +7069,7 @@
     </row>
     <row r="290" spans="1:7">
       <c r="A290">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B290">
         <v>11.5</v>
@@ -7063,7 +7092,7 @@
     </row>
     <row r="291" spans="1:7">
       <c r="A291">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B291">
         <v>11.5</v>
@@ -7086,7 +7115,7 @@
     </row>
     <row r="292" spans="1:7">
       <c r="A292">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B292">
         <v>11.5</v>
@@ -7109,7 +7138,7 @@
     </row>
     <row r="293" spans="1:7">
       <c r="A293">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B293">
         <v>11.5</v>
@@ -7132,7 +7161,7 @@
     </row>
     <row r="294" spans="1:7">
       <c r="A294">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B294">
         <v>11.5</v>
@@ -7155,7 +7184,7 @@
     </row>
     <row r="295" spans="1:7">
       <c r="A295">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B295">
         <v>11.5</v>
@@ -7178,7 +7207,7 @@
     </row>
     <row r="296" spans="1:7">
       <c r="A296">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B296">
         <v>11.5</v>
@@ -7201,7 +7230,7 @@
     </row>
     <row r="297" spans="1:7">
       <c r="A297">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B297">
         <v>11.5</v>
@@ -7224,7 +7253,7 @@
     </row>
     <row r="298" spans="1:7">
       <c r="A298">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B298">
         <v>11.5</v>
@@ -7247,7 +7276,7 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B299">
         <v>11.5</v>
@@ -7270,7 +7299,7 @@
     </row>
     <row r="300" spans="1:7">
       <c r="A300">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B300">
         <v>11.5</v>
@@ -7293,7 +7322,7 @@
     </row>
     <row r="301" spans="1:7">
       <c r="A301">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B301">
         <v>11.5</v>
@@ -7316,7 +7345,7 @@
     </row>
     <row r="302" spans="1:7">
       <c r="A302">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B302">
         <v>11.5</v>
@@ -7339,7 +7368,7 @@
     </row>
     <row r="303" spans="1:7">
       <c r="A303">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B303">
         <v>11.5</v>
@@ -7362,7 +7391,7 @@
     </row>
     <row r="304" spans="1:7">
       <c r="A304">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B304">
         <v>11.5</v>
@@ -7385,7 +7414,7 @@
     </row>
     <row r="305" spans="1:7">
       <c r="A305">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B305">
         <v>11.5</v>
@@ -7408,7 +7437,7 @@
     </row>
     <row r="306" spans="1:7">
       <c r="A306">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B306">
         <v>11.5</v>
@@ -7431,7 +7460,7 @@
     </row>
     <row r="307" spans="1:7">
       <c r="A307">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B307">
         <v>11.5</v>
@@ -7454,7 +7483,7 @@
     </row>
     <row r="308" spans="1:7">
       <c r="A308">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B308">
         <v>11.5</v>
@@ -7477,7 +7506,7 @@
     </row>
     <row r="309" spans="1:7">
       <c r="A309">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B309">
         <v>11.5</v>
@@ -7500,7 +7529,7 @@
     </row>
     <row r="310" spans="1:7">
       <c r="A310">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B310">
         <v>11.5</v>
@@ -7523,7 +7552,7 @@
     </row>
     <row r="311" spans="1:7">
       <c r="A311">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B311">
         <v>11.5</v>
@@ -7546,7 +7575,7 @@
     </row>
     <row r="312" spans="1:7">
       <c r="A312">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B312">
         <v>11.5</v>
@@ -7569,7 +7598,7 @@
     </row>
     <row r="313" spans="1:7">
       <c r="A313">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B313">
         <v>11.5</v>
@@ -7592,7 +7621,7 @@
     </row>
     <row r="314" spans="1:7">
       <c r="A314">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B314">
         <v>11.5</v>
@@ -7615,7 +7644,7 @@
     </row>
     <row r="315" spans="1:7">
       <c r="A315">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B315">
         <v>11.5</v>
@@ -7638,7 +7667,7 @@
     </row>
     <row r="316" spans="1:7">
       <c r="A316">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B316">
         <v>11.5</v>
@@ -7661,7 +7690,7 @@
     </row>
     <row r="317" spans="1:7">
       <c r="A317">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B317">
         <v>11.5</v>
@@ -7684,7 +7713,7 @@
     </row>
     <row r="318" spans="1:7">
       <c r="A318">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B318">
         <v>11.5</v>
@@ -7707,7 +7736,7 @@
     </row>
     <row r="319" spans="1:7">
       <c r="A319">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B319">
         <v>11.5</v>
@@ -7730,7 +7759,7 @@
     </row>
     <row r="320" spans="1:7">
       <c r="A320">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B320">
         <v>11.5</v>
@@ -7753,7 +7782,7 @@
     </row>
     <row r="321" spans="1:7">
       <c r="A321">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B321">
         <v>11.5</v>
@@ -7776,7 +7805,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B322">
         <v>11.5</v>
@@ -7799,7 +7828,7 @@
     </row>
     <row r="323" spans="1:7">
       <c r="A323">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B323">
         <v>11.5</v>
@@ -7822,7 +7851,7 @@
     </row>
     <row r="324" spans="1:7">
       <c r="A324">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B324">
         <v>11.5</v>
@@ -7845,7 +7874,7 @@
     </row>
     <row r="325" spans="1:7">
       <c r="A325">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B325">
         <v>11.5</v>
@@ -7868,7 +7897,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B326">
         <v>11.5</v>
@@ -7891,7 +7920,7 @@
     </row>
     <row r="327" spans="1:7">
       <c r="A327">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B327">
         <v>11.5</v>
@@ -7914,7 +7943,7 @@
     </row>
     <row r="328" spans="1:7">
       <c r="A328">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B328">
         <v>11.5</v>
@@ -7937,7 +7966,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B329">
         <v>11.5</v>
@@ -7960,7 +7989,7 @@
     </row>
     <row r="330" spans="1:7">
       <c r="A330">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B330">
         <v>11.5</v>
@@ -7983,7 +8012,7 @@
     </row>
     <row r="331" spans="1:7">
       <c r="A331">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B331">
         <v>11.5</v>
@@ -8006,7 +8035,7 @@
     </row>
     <row r="332" spans="1:7">
       <c r="A332">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B332">
         <v>11.5</v>
@@ -8029,7 +8058,7 @@
     </row>
     <row r="333" spans="1:7">
       <c r="A333">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B333">
         <v>11.5</v>
@@ -8052,7 +8081,7 @@
     </row>
     <row r="334" spans="1:7">
       <c r="A334">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B334">
         <v>11.5</v>
@@ -8075,7 +8104,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B335">
         <v>11.5</v>
@@ -8098,7 +8127,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B336">
         <v>11.5</v>
@@ -8121,7 +8150,7 @@
     </row>
     <row r="337" spans="1:7">
       <c r="A337">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B337">
         <v>11.5</v>
@@ -8144,7 +8173,7 @@
     </row>
     <row r="338" spans="1:7">
       <c r="A338">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B338">
         <v>11.5</v>
@@ -8167,7 +8196,7 @@
     </row>
     <row r="339" spans="1:7">
       <c r="A339">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B339">
         <v>11.5</v>
@@ -8190,7 +8219,7 @@
     </row>
     <row r="340" spans="1:7">
       <c r="A340">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B340">
         <v>11.5</v>
@@ -8213,7 +8242,7 @@
     </row>
     <row r="341" spans="1:7">
       <c r="A341">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B341">
         <v>11.5</v>
@@ -8236,7 +8265,7 @@
     </row>
     <row r="342" spans="1:7">
       <c r="A342">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B342">
         <v>11.5</v>
@@ -8259,7 +8288,7 @@
     </row>
     <row r="343" spans="1:7">
       <c r="A343">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B343">
         <v>11.5</v>
@@ -8282,7 +8311,7 @@
     </row>
     <row r="344" spans="1:7">
       <c r="A344">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B344">
         <v>11.5</v>
@@ -8305,7 +8334,7 @@
     </row>
     <row r="345" spans="1:7">
       <c r="A345">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B345">
         <v>11.5</v>
@@ -8328,7 +8357,7 @@
     </row>
     <row r="346" spans="1:7">
       <c r="A346">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B346">
         <v>11.5</v>
@@ -8351,7 +8380,7 @@
     </row>
     <row r="347" spans="1:7">
       <c r="A347">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B347">
         <v>11.5</v>
@@ -8374,7 +8403,7 @@
     </row>
     <row r="348" spans="1:7">
       <c r="A348">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B348">
         <v>11.5</v>
@@ -8397,7 +8426,7 @@
     </row>
     <row r="349" spans="1:7">
       <c r="A349">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B349">
         <v>11.5</v>
@@ -8420,7 +8449,7 @@
     </row>
     <row r="350" spans="1:7">
       <c r="A350">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B350">
         <v>11.5</v>
@@ -8443,7 +8472,7 @@
     </row>
     <row r="351" spans="1:7">
       <c r="A351">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B351">
         <v>11.5</v>
@@ -8466,7 +8495,7 @@
     </row>
     <row r="352" spans="1:7">
       <c r="A352">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B352">
         <v>11.5</v>
@@ -8489,7 +8518,7 @@
     </row>
     <row r="353" spans="1:7">
       <c r="A353">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B353">
         <v>11.5</v>
@@ -8512,7 +8541,7 @@
     </row>
     <row r="354" spans="1:7">
       <c r="A354">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B354">
         <v>11.5</v>
@@ -8535,7 +8564,7 @@
     </row>
     <row r="355" spans="1:7">
       <c r="A355">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B355">
         <v>11.5</v>
@@ -8558,7 +8587,7 @@
     </row>
     <row r="356" spans="1:7">
       <c r="A356">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B356">
         <v>11.5</v>
@@ -8581,7 +8610,7 @@
     </row>
     <row r="357" spans="1:7">
       <c r="A357">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B357">
         <v>11.5</v>
@@ -8604,7 +8633,7 @@
     </row>
     <row r="358" spans="1:7">
       <c r="A358">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B358">
         <v>11.5</v>
@@ -8627,7 +8656,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B359">
         <v>11.5</v>
@@ -8650,7 +8679,7 @@
     </row>
     <row r="360" spans="1:7">
       <c r="A360">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B360">
         <v>11.5</v>
@@ -8673,7 +8702,7 @@
     </row>
     <row r="361" spans="1:7">
       <c r="A361">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B361">
         <v>11.5</v>
@@ -8696,7 +8725,7 @@
     </row>
     <row r="362" spans="1:7">
       <c r="A362">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B362">
         <v>11.5</v>
@@ -8719,7 +8748,7 @@
     </row>
     <row r="363" spans="1:7">
       <c r="A363">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B363">
         <v>11.5</v>
@@ -8742,7 +8771,7 @@
     </row>
     <row r="364" spans="1:7">
       <c r="A364">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B364">
         <v>11.5</v>
@@ -8765,7 +8794,7 @@
     </row>
     <row r="365" spans="1:7">
       <c r="A365">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B365">
         <v>11.5</v>
@@ -8788,7 +8817,7 @@
     </row>
     <row r="366" spans="1:7">
       <c r="A366">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B366">
         <v>11.5</v>
@@ -8811,7 +8840,7 @@
     </row>
     <row r="367" spans="1:7">
       <c r="A367">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B367">
         <v>11.5</v>
@@ -8834,7 +8863,7 @@
     </row>
     <row r="368" spans="1:7">
       <c r="A368">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B368">
         <v>11.5</v>
@@ -8857,7 +8886,7 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B369">
         <v>11.5</v>
@@ -8880,7 +8909,7 @@
     </row>
     <row r="370" spans="1:7">
       <c r="A370">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B370">
         <v>11.5</v>
@@ -8903,7 +8932,7 @@
     </row>
     <row r="371" spans="1:7">
       <c r="A371">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B371">
         <v>11.5</v>
@@ -8926,7 +8955,7 @@
     </row>
     <row r="372" spans="1:7">
       <c r="A372">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B372">
         <v>11.5</v>
@@ -8949,7 +8978,7 @@
     </row>
     <row r="373" spans="1:7">
       <c r="A373">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B373">
         <v>11.5</v>
@@ -8972,7 +9001,7 @@
     </row>
     <row r="374" spans="1:7">
       <c r="A374">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B374">
         <v>11.5</v>
@@ -8995,7 +9024,7 @@
     </row>
     <row r="375" spans="1:7">
       <c r="A375">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B375">
         <v>11.5</v>
@@ -9018,7 +9047,7 @@
     </row>
     <row r="376" spans="1:7">
       <c r="A376">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B376">
         <v>11.5</v>
@@ -9041,7 +9070,7 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B377">
         <v>11.5</v>
@@ -9064,7 +9093,7 @@
     </row>
     <row r="378" spans="1:7">
       <c r="A378">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B378">
         <v>11.5</v>
@@ -9087,7 +9116,7 @@
     </row>
     <row r="379" spans="1:7">
       <c r="A379">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B379">
         <v>11.5</v>
@@ -9110,7 +9139,7 @@
     </row>
     <row r="380" spans="1:7">
       <c r="A380">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B380">
         <v>11.5</v>
@@ -9133,7 +9162,7 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B381">
         <v>11.5</v>
@@ -9156,7 +9185,7 @@
     </row>
     <row r="382" spans="1:7">
       <c r="A382">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B382">
         <v>11.5</v>
@@ -9179,7 +9208,7 @@
     </row>
     <row r="383" spans="1:7">
       <c r="A383">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B383">
         <v>11.5</v>
@@ -9202,7 +9231,7 @@
     </row>
     <row r="384" spans="1:7">
       <c r="A384">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B384">
         <v>11.5</v>
@@ -9225,7 +9254,7 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B385">
         <v>11.5</v>
@@ -9248,7 +9277,7 @@
     </row>
     <row r="386" spans="1:7">
       <c r="A386">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B386">
         <v>11.5</v>
@@ -9271,7 +9300,7 @@
     </row>
     <row r="387" spans="1:7">
       <c r="A387">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B387">
         <v>11.5</v>
@@ -9294,7 +9323,7 @@
     </row>
     <row r="388" spans="1:7">
       <c r="A388">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B388">
         <v>11.5</v>
@@ -9317,7 +9346,7 @@
     </row>
     <row r="389" spans="1:7">
       <c r="A389">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B389">
         <v>11.5</v>
@@ -9340,7 +9369,7 @@
     </row>
     <row r="390" spans="1:7">
       <c r="A390">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B390">
         <v>11.5</v>
@@ -9363,7 +9392,7 @@
     </row>
     <row r="391" spans="1:7">
       <c r="A391">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B391">
         <v>11.5</v>
@@ -9386,7 +9415,7 @@
     </row>
     <row r="392" spans="1:7">
       <c r="A392">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B392">
         <v>11.5</v>
@@ -9409,7 +9438,7 @@
     </row>
     <row r="393" spans="1:7">
       <c r="A393">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B393">
         <v>19.600000000000001</v>
@@ -9432,7 +9461,7 @@
     </row>
     <row r="394" spans="1:7">
       <c r="A394">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B394">
         <v>19.600000000000001</v>
@@ -9455,7 +9484,7 @@
     </row>
     <row r="395" spans="1:7">
       <c r="A395">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B395">
         <v>19.600000000000001</v>
@@ -9478,7 +9507,7 @@
     </row>
     <row r="396" spans="1:7">
       <c r="A396">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B396">
         <v>19.600000000000001</v>
@@ -9501,7 +9530,7 @@
     </row>
     <row r="397" spans="1:7">
       <c r="A397">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B397">
         <v>19.600000000000001</v>
@@ -9524,7 +9553,7 @@
     </row>
     <row r="398" spans="1:7">
       <c r="A398">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B398">
         <v>19.600000000000001</v>
@@ -9547,7 +9576,7 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B399">
         <v>19.600000000000001</v>
@@ -9570,7 +9599,7 @@
     </row>
     <row r="400" spans="1:7">
       <c r="A400">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B400">
         <v>19.600000000000001</v>
@@ -9593,7 +9622,7 @@
     </row>
     <row r="401" spans="1:7">
       <c r="A401">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B401">
         <v>19.600000000000001</v>
@@ -9616,7 +9645,7 @@
     </row>
     <row r="402" spans="1:7">
       <c r="A402">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B402">
         <v>19.600000000000001</v>
@@ -9639,7 +9668,7 @@
     </row>
     <row r="403" spans="1:7">
       <c r="A403">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B403">
         <v>19.600000000000001</v>
@@ -9662,7 +9691,7 @@
     </row>
     <row r="404" spans="1:7">
       <c r="A404">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B404">
         <v>19.600000000000001</v>
@@ -9685,7 +9714,7 @@
     </row>
     <row r="405" spans="1:7">
       <c r="A405">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B405">
         <v>19.600000000000001</v>
@@ -9708,7 +9737,7 @@
     </row>
     <row r="406" spans="1:7">
       <c r="A406">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B406">
         <v>19.600000000000001</v>
@@ -9731,7 +9760,7 @@
     </row>
     <row r="407" spans="1:7">
       <c r="A407">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B407">
         <v>19.600000000000001</v>
@@ -9754,7 +9783,7 @@
     </row>
     <row r="408" spans="1:7">
       <c r="A408">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B408">
         <v>19.600000000000001</v>
@@ -9777,7 +9806,7 @@
     </row>
     <row r="409" spans="1:7">
       <c r="A409">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B409">
         <v>19.600000000000001</v>
@@ -9800,7 +9829,7 @@
     </row>
     <row r="410" spans="1:7">
       <c r="A410">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B410">
         <v>19.600000000000001</v>
@@ -9823,7 +9852,7 @@
     </row>
     <row r="411" spans="1:7">
       <c r="A411">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B411">
         <v>19.600000000000001</v>
@@ -9846,7 +9875,7 @@
     </row>
     <row r="412" spans="1:7">
       <c r="A412">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B412">
         <v>19.600000000000001</v>
@@ -9869,7 +9898,7 @@
     </row>
     <row r="413" spans="1:7">
       <c r="A413">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B413">
         <v>19.600000000000001</v>
@@ -9892,7 +9921,7 @@
     </row>
     <row r="414" spans="1:7">
       <c r="A414">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B414">
         <v>19.600000000000001</v>
@@ -9915,7 +9944,7 @@
     </row>
     <row r="415" spans="1:7">
       <c r="A415">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B415">
         <v>19.600000000000001</v>
@@ -9938,7 +9967,7 @@
     </row>
     <row r="416" spans="1:7">
       <c r="A416">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B416">
         <v>19.600000000000001</v>
@@ -9961,7 +9990,7 @@
     </row>
     <row r="417" spans="1:7">
       <c r="A417">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B417">
         <v>19.600000000000001</v>
@@ -9984,7 +10013,7 @@
     </row>
     <row r="418" spans="1:7">
       <c r="A418">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B418">
         <v>19.600000000000001</v>
@@ -10007,7 +10036,7 @@
     </row>
     <row r="419" spans="1:7">
       <c r="A419">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B419">
         <v>19.600000000000001</v>
@@ -10030,7 +10059,7 @@
     </row>
     <row r="420" spans="1:7">
       <c r="A420">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B420">
         <v>19.600000000000001</v>
@@ -10053,7 +10082,7 @@
     </row>
     <row r="421" spans="1:7">
       <c r="A421">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B421">
         <v>19.600000000000001</v>
@@ -10076,7 +10105,7 @@
     </row>
     <row r="422" spans="1:7">
       <c r="A422">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B422">
         <v>19.600000000000001</v>
@@ -10099,7 +10128,7 @@
     </row>
     <row r="423" spans="1:7">
       <c r="A423">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B423">
         <v>19.600000000000001</v>
@@ -10122,7 +10151,7 @@
     </row>
     <row r="424" spans="1:7">
       <c r="A424">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B424">
         <v>19.600000000000001</v>
@@ -10145,7 +10174,7 @@
     </row>
     <row r="425" spans="1:7">
       <c r="A425">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B425">
         <v>19.600000000000001</v>
@@ -10168,7 +10197,7 @@
     </row>
     <row r="426" spans="1:7">
       <c r="A426">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B426">
         <v>19.600000000000001</v>
@@ -10191,7 +10220,7 @@
     </row>
     <row r="427" spans="1:7">
       <c r="A427">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B427">
         <v>19.600000000000001</v>
@@ -10214,7 +10243,7 @@
     </row>
     <row r="428" spans="1:7">
       <c r="A428">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B428">
         <v>19.600000000000001</v>
@@ -10237,7 +10266,7 @@
     </row>
     <row r="429" spans="1:7">
       <c r="A429">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B429">
         <v>19.600000000000001</v>
@@ -10260,7 +10289,7 @@
     </row>
     <row r="430" spans="1:7">
       <c r="A430">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B430">
         <v>19.600000000000001</v>
@@ -10283,7 +10312,7 @@
     </row>
     <row r="431" spans="1:7">
       <c r="A431">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B431">
         <v>19.600000000000001</v>
@@ -10306,7 +10335,7 @@
     </row>
     <row r="432" spans="1:7">
       <c r="A432">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B432">
         <v>19.600000000000001</v>
@@ -10329,7 +10358,7 @@
     </row>
     <row r="433" spans="1:7">
       <c r="A433">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B433">
         <v>19.600000000000001</v>
@@ -10352,7 +10381,7 @@
     </row>
     <row r="434" spans="1:7">
       <c r="A434">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B434">
         <v>19.600000000000001</v>
@@ -10375,7 +10404,7 @@
     </row>
     <row r="435" spans="1:7">
       <c r="A435">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B435">
         <v>19.600000000000001</v>
@@ -10398,7 +10427,7 @@
     </row>
     <row r="436" spans="1:7">
       <c r="A436">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B436">
         <v>19.600000000000001</v>
@@ -10421,7 +10450,7 @@
     </row>
     <row r="437" spans="1:7">
       <c r="A437">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B437">
         <v>19.600000000000001</v>
@@ -10444,7 +10473,7 @@
     </row>
     <row r="438" spans="1:7">
       <c r="A438">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B438">
         <v>19.600000000000001</v>
@@ -10467,7 +10496,7 @@
     </row>
     <row r="439" spans="1:7">
       <c r="A439">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B439">
         <v>19.600000000000001</v>
@@ -10490,7 +10519,7 @@
     </row>
     <row r="440" spans="1:7">
       <c r="A440">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B440">
         <v>19.600000000000001</v>
@@ -10513,7 +10542,7 @@
     </row>
     <row r="441" spans="1:7">
       <c r="A441">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B441">
         <v>19.600000000000001</v>
@@ -10536,7 +10565,7 @@
     </row>
     <row r="442" spans="1:7">
       <c r="A442">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B442">
         <v>19.600000000000001</v>
@@ -10559,7 +10588,7 @@
     </row>
     <row r="443" spans="1:7">
       <c r="A443">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B443">
         <v>19.600000000000001</v>
@@ -10582,7 +10611,7 @@
     </row>
     <row r="444" spans="1:7">
       <c r="A444">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B444">
         <v>19.600000000000001</v>
@@ -10605,7 +10634,7 @@
     </row>
     <row r="445" spans="1:7">
       <c r="A445">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B445">
         <v>19.600000000000001</v>
@@ -10628,7 +10657,7 @@
     </row>
     <row r="446" spans="1:7">
       <c r="A446">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B446">
         <v>19.600000000000001</v>
@@ -10651,7 +10680,7 @@
     </row>
     <row r="447" spans="1:7">
       <c r="A447">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B447">
         <v>19.600000000000001</v>
@@ -10674,7 +10703,7 @@
     </row>
     <row r="448" spans="1:7">
       <c r="A448">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B448">
         <v>19.600000000000001</v>
@@ -10697,7 +10726,7 @@
     </row>
     <row r="449" spans="1:7">
       <c r="A449">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B449">
         <v>19.600000000000001</v>
@@ -10720,7 +10749,7 @@
     </row>
     <row r="450" spans="1:7">
       <c r="A450">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B450">
         <v>19.600000000000001</v>
@@ -10743,7 +10772,7 @@
     </row>
     <row r="451" spans="1:7">
       <c r="A451">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B451">
         <v>19.600000000000001</v>
@@ -10766,7 +10795,7 @@
     </row>
     <row r="452" spans="1:7">
       <c r="A452">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B452">
         <v>19.600000000000001</v>
@@ -10789,7 +10818,7 @@
     </row>
     <row r="453" spans="1:7">
       <c r="A453">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B453">
         <v>19.600000000000001</v>
@@ -10812,7 +10841,7 @@
     </row>
     <row r="454" spans="1:7">
       <c r="A454">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B454">
         <v>19.600000000000001</v>
@@ -10835,7 +10864,7 @@
     </row>
     <row r="455" spans="1:7">
       <c r="A455">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B455">
         <v>19.600000000000001</v>
@@ -10858,7 +10887,7 @@
     </row>
     <row r="456" spans="1:7">
       <c r="A456">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B456">
         <v>19.600000000000001</v>
@@ -10881,7 +10910,7 @@
     </row>
     <row r="457" spans="1:7">
       <c r="A457">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B457">
         <v>19.600000000000001</v>
@@ -10904,7 +10933,7 @@
     </row>
     <row r="458" spans="1:7">
       <c r="A458">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B458">
         <v>19.600000000000001</v>
@@ -10927,7 +10956,7 @@
     </row>
     <row r="459" spans="1:7">
       <c r="A459">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B459">
         <v>19.600000000000001</v>
@@ -10950,7 +10979,7 @@
     </row>
     <row r="460" spans="1:7">
       <c r="A460">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B460">
         <v>19.600000000000001</v>
@@ -10973,7 +11002,7 @@
     </row>
     <row r="461" spans="1:7">
       <c r="A461">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B461">
         <v>19.600000000000001</v>
@@ -10996,7 +11025,7 @@
     </row>
     <row r="462" spans="1:7">
       <c r="A462">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B462">
         <v>19.600000000000001</v>
@@ -11019,7 +11048,7 @@
     </row>
     <row r="463" spans="1:7">
       <c r="A463">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B463">
         <v>19.600000000000001</v>
@@ -11042,7 +11071,7 @@
     </row>
     <row r="464" spans="1:7">
       <c r="A464">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B464">
         <v>19.600000000000001</v>
@@ -11065,7 +11094,7 @@
     </row>
     <row r="465" spans="1:7">
       <c r="A465">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B465">
         <v>19.600000000000001</v>
@@ -11088,7 +11117,7 @@
     </row>
     <row r="466" spans="1:7">
       <c r="A466">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B466">
         <v>19.600000000000001</v>
@@ -11111,7 +11140,7 @@
     </row>
     <row r="467" spans="1:7">
       <c r="A467">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B467">
         <v>19.600000000000001</v>
@@ -11134,7 +11163,7 @@
     </row>
     <row r="468" spans="1:7">
       <c r="A468">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B468">
         <v>19.600000000000001</v>
@@ -11157,7 +11186,7 @@
     </row>
     <row r="469" spans="1:7">
       <c r="A469">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B469">
         <v>19.600000000000001</v>
@@ -11180,7 +11209,7 @@
     </row>
     <row r="470" spans="1:7">
       <c r="A470">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B470">
         <v>19.600000000000001</v>
@@ -11203,7 +11232,7 @@
     </row>
     <row r="471" spans="1:7">
       <c r="A471">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B471">
         <v>19.600000000000001</v>
@@ -11226,7 +11255,7 @@
     </row>
     <row r="472" spans="1:7">
       <c r="A472">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B472">
         <v>19.600000000000001</v>
@@ -11249,7 +11278,7 @@
     </row>
     <row r="473" spans="1:7">
       <c r="A473">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B473">
         <v>19.600000000000001</v>
@@ -11272,7 +11301,7 @@
     </row>
     <row r="474" spans="1:7">
       <c r="A474">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B474">
         <v>19.600000000000001</v>
@@ -11295,7 +11324,7 @@
     </row>
     <row r="475" spans="1:7">
       <c r="A475">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B475">
         <v>19.600000000000001</v>
@@ -11318,7 +11347,7 @@
     </row>
     <row r="476" spans="1:7">
       <c r="A476">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B476">
         <v>19.600000000000001</v>
@@ -11341,7 +11370,7 @@
     </row>
     <row r="477" spans="1:7">
       <c r="A477">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B477">
         <v>19.600000000000001</v>
@@ -11364,7 +11393,7 @@
     </row>
     <row r="478" spans="1:7">
       <c r="A478">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B478">
         <v>19.600000000000001</v>
@@ -11387,7 +11416,7 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B479">
         <v>19.600000000000001</v>
@@ -11410,7 +11439,7 @@
     </row>
     <row r="480" spans="1:7">
       <c r="A480">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B480">
         <v>19.600000000000001</v>
@@ -11433,7 +11462,7 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B481">
         <v>19.600000000000001</v>
@@ -11456,7 +11485,7 @@
     </row>
     <row r="482" spans="1:7">
       <c r="A482">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B482">
         <v>19.600000000000001</v>
@@ -11479,7 +11508,7 @@
     </row>
     <row r="483" spans="1:7">
       <c r="A483">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B483">
         <v>19.600000000000001</v>
@@ -11502,7 +11531,7 @@
     </row>
     <row r="484" spans="1:7">
       <c r="A484">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B484">
         <v>19.600000000000001</v>
@@ -11525,7 +11554,7 @@
     </row>
     <row r="485" spans="1:7">
       <c r="A485">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B485">
         <v>19.600000000000001</v>
@@ -11548,7 +11577,7 @@
     </row>
     <row r="486" spans="1:7">
       <c r="A486">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B486">
         <v>19.600000000000001</v>
@@ -11571,7 +11600,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B487">
         <v>19.600000000000001</v>
@@ -11594,7 +11623,7 @@
     </row>
     <row r="488" spans="1:7">
       <c r="A488">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B488">
         <v>19.600000000000001</v>
@@ -11617,7 +11646,7 @@
     </row>
     <row r="489" spans="1:7">
       <c r="A489">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B489">
         <v>19.600000000000001</v>
@@ -11640,7 +11669,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B490">
         <v>19.600000000000001</v>
@@ -11663,7 +11692,7 @@
     </row>
     <row r="491" spans="1:7">
       <c r="A491">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B491">
         <v>19.600000000000001</v>
@@ -11686,7 +11715,7 @@
     </row>
     <row r="492" spans="1:7">
       <c r="A492">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B492">
         <v>19.600000000000001</v>
@@ -11709,7 +11738,7 @@
     </row>
     <row r="493" spans="1:7">
       <c r="A493">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B493">
         <v>19.600000000000001</v>
@@ -11732,7 +11761,7 @@
     </row>
     <row r="494" spans="1:7">
       <c r="A494">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B494">
         <v>19.600000000000001</v>
@@ -11755,7 +11784,7 @@
     </row>
     <row r="495" spans="1:7">
       <c r="A495">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B495">
         <v>19.600000000000001</v>
@@ -11778,7 +11807,7 @@
     </row>
     <row r="496" spans="1:7">
       <c r="A496">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B496">
         <v>19.600000000000001</v>
@@ -11801,7 +11830,7 @@
     </row>
     <row r="497" spans="1:7">
       <c r="A497">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B497">
         <v>19.600000000000001</v>
@@ -11824,7 +11853,7 @@
     </row>
     <row r="498" spans="1:7">
       <c r="A498">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B498">
         <v>19.600000000000001</v>
@@ -11847,7 +11876,7 @@
     </row>
     <row r="499" spans="1:7">
       <c r="A499">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B499">
         <v>19.600000000000001</v>
@@ -11870,7 +11899,7 @@
     </row>
     <row r="500" spans="1:7">
       <c r="A500">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B500">
         <v>19.600000000000001</v>
@@ -11893,7 +11922,7 @@
     </row>
     <row r="501" spans="1:7">
       <c r="A501">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B501">
         <v>19.600000000000001</v>
@@ -11916,7 +11945,7 @@
     </row>
     <row r="502" spans="1:7">
       <c r="A502">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B502">
         <v>19.600000000000001</v>
@@ -11939,7 +11968,7 @@
     </row>
     <row r="503" spans="1:7">
       <c r="A503">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B503">
         <v>19.600000000000001</v>
@@ -11962,7 +11991,7 @@
     </row>
     <row r="504" spans="1:7">
       <c r="A504">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B504">
         <v>19.600000000000001</v>
@@ -11985,7 +12014,7 @@
     </row>
     <row r="505" spans="1:7">
       <c r="A505">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B505">
         <v>19.600000000000001</v>
@@ -12008,7 +12037,7 @@
     </row>
     <row r="506" spans="1:7">
       <c r="A506">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B506">
         <v>19.600000000000001</v>
@@ -12031,7 +12060,7 @@
     </row>
     <row r="507" spans="1:7">
       <c r="A507">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B507">
         <v>19.600000000000001</v>
@@ -12054,7 +12083,7 @@
     </row>
     <row r="508" spans="1:7">
       <c r="A508">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B508">
         <v>19.600000000000001</v>
@@ -12077,7 +12106,7 @@
     </row>
     <row r="509" spans="1:7">
       <c r="A509">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B509">
         <v>19.600000000000001</v>
@@ -12100,7 +12129,7 @@
     </row>
     <row r="510" spans="1:7">
       <c r="A510">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B510">
         <v>19.600000000000001</v>
@@ -12123,7 +12152,7 @@
     </row>
     <row r="511" spans="1:7">
       <c r="A511">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B511">
         <v>19.600000000000001</v>
@@ -12146,7 +12175,7 @@
     </row>
     <row r="512" spans="1:7">
       <c r="A512">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B512">
         <v>19.600000000000001</v>
@@ -12169,7 +12198,7 @@
     </row>
     <row r="513" spans="1:7">
       <c r="A513">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B513">
         <v>19.600000000000001</v>
@@ -12192,7 +12221,7 @@
     </row>
     <row r="514" spans="1:7">
       <c r="A514">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B514">
         <v>19.600000000000001</v>
@@ -12215,7 +12244,7 @@
     </row>
     <row r="515" spans="1:7">
       <c r="A515">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B515">
         <v>19.600000000000001</v>
@@ -12238,7 +12267,7 @@
     </row>
     <row r="516" spans="1:7">
       <c r="A516">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B516">
         <v>19.600000000000001</v>
@@ -12261,7 +12290,7 @@
     </row>
     <row r="517" spans="1:7">
       <c r="A517">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B517">
         <v>19.600000000000001</v>
@@ -12284,7 +12313,7 @@
     </row>
     <row r="518" spans="1:7">
       <c r="A518">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B518">
         <v>19.600000000000001</v>
@@ -12307,7 +12336,7 @@
     </row>
     <row r="519" spans="1:7">
       <c r="A519">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B519">
         <v>19.600000000000001</v>
@@ -12330,7 +12359,7 @@
     </row>
     <row r="520" spans="1:7">
       <c r="A520">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B520">
         <v>19.600000000000001</v>
@@ -12353,7 +12382,7 @@
     </row>
     <row r="521" spans="1:7">
       <c r="A521">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B521">
         <v>19.600000000000001</v>
@@ -12376,7 +12405,7 @@
     </row>
     <row r="522" spans="1:7">
       <c r="A522">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B522">
         <v>19.600000000000001</v>
@@ -12399,7 +12428,7 @@
     </row>
     <row r="523" spans="1:7">
       <c r="A523">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B523">
         <v>19.600000000000001</v>
@@ -12422,7 +12451,7 @@
     </row>
     <row r="524" spans="1:7">
       <c r="A524">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B524">
         <v>19.600000000000001</v>
@@ -12445,7 +12474,7 @@
     </row>
     <row r="525" spans="1:7">
       <c r="A525">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B525">
         <v>19.600000000000001</v>
@@ -12468,7 +12497,7 @@
     </row>
     <row r="526" spans="1:7">
       <c r="A526">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B526">
         <v>19.600000000000001</v>
@@ -12491,7 +12520,7 @@
     </row>
     <row r="527" spans="1:7">
       <c r="A527">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B527">
         <v>19.600000000000001</v>
@@ -12514,7 +12543,7 @@
     </row>
     <row r="528" spans="1:7">
       <c r="A528">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B528">
         <v>19.600000000000001</v>
@@ -12537,7 +12566,7 @@
     </row>
     <row r="529" spans="1:7">
       <c r="A529">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B529">
         <v>19.600000000000001</v>
@@ -12560,7 +12589,7 @@
     </row>
     <row r="530" spans="1:7">
       <c r="A530">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B530">
         <v>19.600000000000001</v>
@@ -12583,7 +12612,7 @@
     </row>
     <row r="531" spans="1:7">
       <c r="A531">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B531">
         <v>19.600000000000001</v>
@@ -12606,7 +12635,7 @@
     </row>
     <row r="532" spans="1:7">
       <c r="A532">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B532">
         <v>19.600000000000001</v>
@@ -12629,7 +12658,7 @@
     </row>
     <row r="533" spans="1:7">
       <c r="A533">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B533">
         <v>19.600000000000001</v>
@@ -12652,7 +12681,7 @@
     </row>
     <row r="534" spans="1:7">
       <c r="A534">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B534">
         <v>19.600000000000001</v>
@@ -12675,7 +12704,7 @@
     </row>
     <row r="535" spans="1:7">
       <c r="A535">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B535">
         <v>19.600000000000001</v>
@@ -12698,7 +12727,7 @@
     </row>
     <row r="536" spans="1:7">
       <c r="A536">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B536">
         <v>19.600000000000001</v>
@@ -12721,7 +12750,7 @@
     </row>
     <row r="537" spans="1:7">
       <c r="A537">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B537">
         <v>19.600000000000001</v>
@@ -12744,7 +12773,7 @@
     </row>
     <row r="538" spans="1:7">
       <c r="A538">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B538">
         <v>19.600000000000001</v>
@@ -12767,7 +12796,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B539">
         <v>19.600000000000001</v>
@@ -12790,7 +12819,7 @@
     </row>
     <row r="540" spans="1:7">
       <c r="A540">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B540">
         <v>19.600000000000001</v>
@@ -12813,7 +12842,7 @@
     </row>
     <row r="541" spans="1:7">
       <c r="A541">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B541">
         <v>19.600000000000001</v>
@@ -12836,7 +12865,7 @@
     </row>
     <row r="542" spans="1:7">
       <c r="A542">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B542">
         <v>19.600000000000001</v>
@@ -12859,7 +12888,7 @@
     </row>
     <row r="543" spans="1:7">
       <c r="A543">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B543">
         <v>19.600000000000001</v>
@@ -12882,7 +12911,7 @@
     </row>
     <row r="544" spans="1:7">
       <c r="A544">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B544">
         <v>19.600000000000001</v>
@@ -12905,7 +12934,7 @@
     </row>
     <row r="545" spans="1:7">
       <c r="A545">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B545">
         <v>19.600000000000001</v>
@@ -12928,7 +12957,7 @@
     </row>
     <row r="546" spans="1:7">
       <c r="A546">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B546">
         <v>19.600000000000001</v>
@@ -12951,7 +12980,7 @@
     </row>
     <row r="547" spans="1:7">
       <c r="A547">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B547">
         <v>19.600000000000001</v>
@@ -12974,7 +13003,7 @@
     </row>
     <row r="548" spans="1:7">
       <c r="A548">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B548">
         <v>19.600000000000001</v>
@@ -12997,7 +13026,7 @@
     </row>
     <row r="549" spans="1:7">
       <c r="A549">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B549">
         <v>19.600000000000001</v>
@@ -13020,7 +13049,7 @@
     </row>
     <row r="550" spans="1:7">
       <c r="A550">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B550">
         <v>19.600000000000001</v>
@@ -13043,7 +13072,7 @@
     </row>
     <row r="551" spans="1:7">
       <c r="A551">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B551">
         <v>19.600000000000001</v>
@@ -13066,7 +13095,7 @@
     </row>
     <row r="552" spans="1:7">
       <c r="A552">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B552">
         <v>19.600000000000001</v>
@@ -13089,7 +13118,7 @@
     </row>
     <row r="553" spans="1:7">
       <c r="A553">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B553">
         <v>19.600000000000001</v>
@@ -13112,7 +13141,7 @@
     </row>
     <row r="554" spans="1:7">
       <c r="A554">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B554">
         <v>19.600000000000001</v>
@@ -13135,7 +13164,7 @@
     </row>
     <row r="555" spans="1:7">
       <c r="A555">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B555">
         <v>19.600000000000001</v>
@@ -13158,7 +13187,7 @@
     </row>
     <row r="556" spans="1:7">
       <c r="A556">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B556">
         <v>19.600000000000001</v>
@@ -13181,7 +13210,7 @@
     </row>
     <row r="557" spans="1:7">
       <c r="A557">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B557">
         <v>19.600000000000001</v>
@@ -13204,7 +13233,7 @@
     </row>
     <row r="558" spans="1:7">
       <c r="A558">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B558">
         <v>19.600000000000001</v>
@@ -13227,7 +13256,7 @@
     </row>
     <row r="559" spans="1:7">
       <c r="A559">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B559">
         <v>19.600000000000001</v>
@@ -13250,7 +13279,7 @@
     </row>
     <row r="560" spans="1:7">
       <c r="A560">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B560">
         <v>19.600000000000001</v>
@@ -13273,7 +13302,7 @@
     </row>
     <row r="561" spans="1:7">
       <c r="A561">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B561">
         <v>19.600000000000001</v>
@@ -13296,7 +13325,7 @@
     </row>
     <row r="562" spans="1:7">
       <c r="A562">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B562">
         <v>19.600000000000001</v>
@@ -13319,7 +13348,7 @@
     </row>
     <row r="563" spans="1:7">
       <c r="A563">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B563">
         <v>19.600000000000001</v>
@@ -13342,7 +13371,7 @@
     </row>
     <row r="564" spans="1:7">
       <c r="A564">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B564">
         <v>19.600000000000001</v>
@@ -13365,7 +13394,7 @@
     </row>
     <row r="565" spans="1:7">
       <c r="A565">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B565">
         <v>19.600000000000001</v>
@@ -13388,7 +13417,7 @@
     </row>
     <row r="566" spans="1:7">
       <c r="A566">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B566">
         <v>19.600000000000001</v>
@@ -13411,7 +13440,7 @@
     </row>
     <row r="567" spans="1:7">
       <c r="A567">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B567">
         <v>19.600000000000001</v>
@@ -13434,7 +13463,7 @@
     </row>
     <row r="568" spans="1:7">
       <c r="A568">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B568">
         <v>19.600000000000001</v>
@@ -13457,7 +13486,7 @@
     </row>
     <row r="569" spans="1:7">
       <c r="A569">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B569">
         <v>19.600000000000001</v>
@@ -13480,7 +13509,7 @@
     </row>
     <row r="570" spans="1:7">
       <c r="A570">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B570">
         <v>19.600000000000001</v>
@@ -13503,7 +13532,7 @@
     </row>
     <row r="571" spans="1:7">
       <c r="A571">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B571">
         <v>19.600000000000001</v>
@@ -13526,7 +13555,7 @@
     </row>
     <row r="572" spans="1:7">
       <c r="A572">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B572">
         <v>19.600000000000001</v>
@@ -13549,7 +13578,7 @@
     </row>
     <row r="573" spans="1:7">
       <c r="A573">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B573">
         <v>19.600000000000001</v>
@@ -13572,7 +13601,7 @@
     </row>
     <row r="574" spans="1:7">
       <c r="A574">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B574">
         <v>19.600000000000001</v>
@@ -13595,7 +13624,7 @@
     </row>
     <row r="575" spans="1:7">
       <c r="A575">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B575">
         <v>19.600000000000001</v>
@@ -13618,7 +13647,7 @@
     </row>
     <row r="576" spans="1:7">
       <c r="A576">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B576">
         <v>19.600000000000001</v>
@@ -13641,7 +13670,7 @@
     </row>
     <row r="577" spans="1:7">
       <c r="A577">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B577">
         <v>19.600000000000001</v>
@@ -13664,7 +13693,7 @@
     </row>
     <row r="578" spans="1:7">
       <c r="A578">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B578">
         <v>19.600000000000001</v>
@@ -13687,7 +13716,7 @@
     </row>
     <row r="579" spans="1:7">
       <c r="A579">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B579">
         <v>19.600000000000001</v>
@@ -13710,7 +13739,7 @@
     </row>
     <row r="580" spans="1:7">
       <c r="A580">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B580">
         <v>19.600000000000001</v>
@@ -13733,7 +13762,7 @@
     </row>
     <row r="581" spans="1:7">
       <c r="A581">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B581">
         <v>19.600000000000001</v>
@@ -13756,7 +13785,7 @@
     </row>
     <row r="582" spans="1:7">
       <c r="A582">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B582">
         <v>19.600000000000001</v>
@@ -13779,7 +13808,7 @@
     </row>
     <row r="583" spans="1:7">
       <c r="A583">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B583">
         <v>19.600000000000001</v>
@@ -13802,7 +13831,7 @@
     </row>
     <row r="584" spans="1:7">
       <c r="A584">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B584">
         <v>19.600000000000001</v>
@@ -13825,7 +13854,7 @@
     </row>
     <row r="585" spans="1:7">
       <c r="A585">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B585">
         <v>19.600000000000001</v>
@@ -13848,7 +13877,7 @@
     </row>
     <row r="586" spans="1:7">
       <c r="A586">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B586">
         <v>19.600000000000001</v>
@@ -13871,7 +13900,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B587">
         <v>19.600000000000001</v>
@@ -13894,7 +13923,7 @@
     </row>
     <row r="588" spans="1:7">
       <c r="A588">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B588">
         <v>19.600000000000001</v>
@@ -13917,7 +13946,7 @@
     </row>
     <row r="589" spans="1:7">
       <c r="A589">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B589">
         <v>19.600000000000001</v>
@@ -13940,7 +13969,7 @@
     </row>
     <row r="590" spans="1:7">
       <c r="A590">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B590">
         <v>19.600000000000001</v>
@@ -13963,7 +13992,7 @@
     </row>
     <row r="591" spans="1:7">
       <c r="A591">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B591">
         <v>19.600000000000001</v>
@@ -13986,7 +14015,7 @@
     </row>
     <row r="592" spans="1:7">
       <c r="A592">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B592">
         <v>19.600000000000001</v>
@@ -14009,7 +14038,7 @@
     </row>
     <row r="593" spans="1:7">
       <c r="A593">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B593">
         <v>19.600000000000001</v>
@@ -14032,7 +14061,7 @@
     </row>
     <row r="594" spans="1:7">
       <c r="A594">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B594">
         <v>19.600000000000001</v>
@@ -14055,7 +14084,7 @@
     </row>
     <row r="595" spans="1:7">
       <c r="A595">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B595">
         <v>19.600000000000001</v>
@@ -14078,7 +14107,7 @@
     </row>
     <row r="596" spans="1:7">
       <c r="A596">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B596">
         <v>19.600000000000001</v>
@@ -14101,7 +14130,7 @@
     </row>
     <row r="597" spans="1:7">
       <c r="A597">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B597">
         <v>19.600000000000001</v>
@@ -14124,7 +14153,7 @@
     </row>
     <row r="598" spans="1:7">
       <c r="A598">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B598">
         <v>19.600000000000001</v>
@@ -14147,7 +14176,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B599">
         <v>19.600000000000001</v>
@@ -14170,7 +14199,7 @@
     </row>
     <row r="600" spans="1:7">
       <c r="A600">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B600">
         <v>19.600000000000001</v>
@@ -14193,7 +14222,7 @@
     </row>
     <row r="601" spans="1:7">
       <c r="A601">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B601">
         <v>19.600000000000001</v>
@@ -14216,7 +14245,7 @@
     </row>
     <row r="602" spans="1:7">
       <c r="A602">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B602">
         <v>19.600000000000001</v>
@@ -14239,7 +14268,7 @@
     </row>
     <row r="603" spans="1:7">
       <c r="A603">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B603">
         <v>19.600000000000001</v>
@@ -14262,7 +14291,7 @@
     </row>
     <row r="604" spans="1:7">
       <c r="A604">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B604">
         <v>19.600000000000001</v>
@@ -14285,7 +14314,7 @@
     </row>
     <row r="605" spans="1:7">
       <c r="A605">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B605">
         <v>19.600000000000001</v>
@@ -14308,7 +14337,7 @@
     </row>
     <row r="606" spans="1:7">
       <c r="A606">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B606">
         <v>19.600000000000001</v>
@@ -14331,7 +14360,7 @@
     </row>
     <row r="607" spans="1:7">
       <c r="A607">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B607">
         <v>19.600000000000001</v>
@@ -14354,7 +14383,7 @@
     </row>
     <row r="608" spans="1:7">
       <c r="A608">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B608">
         <v>19.600000000000001</v>
@@ -14377,7 +14406,7 @@
     </row>
     <row r="609" spans="1:7">
       <c r="A609">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B609">
         <v>19.600000000000001</v>
@@ -14400,7 +14429,7 @@
     </row>
     <row r="610" spans="1:7">
       <c r="A610">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B610">
         <v>19.600000000000001</v>
@@ -14423,7 +14452,7 @@
     </row>
     <row r="611" spans="1:7">
       <c r="A611">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B611">
         <v>19.600000000000001</v>
@@ -14446,7 +14475,7 @@
     </row>
     <row r="612" spans="1:7">
       <c r="A612">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B612">
         <v>19.600000000000001</v>
@@ -14469,7 +14498,7 @@
     </row>
     <row r="613" spans="1:7">
       <c r="A613">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B613">
         <v>19.600000000000001</v>
@@ -14492,7 +14521,7 @@
     </row>
     <row r="614" spans="1:7">
       <c r="A614">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B614">
         <v>19.600000000000001</v>
@@ -14515,7 +14544,7 @@
     </row>
     <row r="615" spans="1:7">
       <c r="A615">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B615">
         <v>19.600000000000001</v>
@@ -14538,7 +14567,7 @@
     </row>
     <row r="616" spans="1:7">
       <c r="A616">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B616">
         <v>19.600000000000001</v>
@@ -14561,7 +14590,7 @@
     </row>
     <row r="617" spans="1:7">
       <c r="A617">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B617">
         <v>27</v>
@@ -14584,7 +14613,7 @@
     </row>
     <row r="618" spans="1:7">
       <c r="A618">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B618">
         <v>27</v>
@@ -14607,7 +14636,7 @@
     </row>
     <row r="619" spans="1:7">
       <c r="A619">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B619">
         <v>27</v>
@@ -14630,7 +14659,7 @@
     </row>
     <row r="620" spans="1:7">
       <c r="A620">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B620">
         <v>27</v>
@@ -14653,7 +14682,7 @@
     </row>
     <row r="621" spans="1:7">
       <c r="A621">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B621">
         <v>27</v>
@@ -14676,7 +14705,7 @@
     </row>
     <row r="622" spans="1:7">
       <c r="A622">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B622">
         <v>27</v>
@@ -14699,7 +14728,7 @@
     </row>
     <row r="623" spans="1:7">
       <c r="A623">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B623">
         <v>27</v>
@@ -14722,7 +14751,7 @@
     </row>
     <row r="624" spans="1:7">
       <c r="A624">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B624">
         <v>27</v>
@@ -14745,7 +14774,7 @@
     </row>
     <row r="625" spans="1:7">
       <c r="A625">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B625">
         <v>27</v>
@@ -14768,7 +14797,7 @@
     </row>
     <row r="626" spans="1:7">
       <c r="A626">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B626">
         <v>27</v>
@@ -14791,7 +14820,7 @@
     </row>
     <row r="627" spans="1:7">
       <c r="A627">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B627">
         <v>27</v>
@@ -14814,7 +14843,7 @@
     </row>
     <row r="628" spans="1:7">
       <c r="A628">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B628">
         <v>27</v>
@@ -14837,7 +14866,7 @@
     </row>
     <row r="629" spans="1:7">
       <c r="A629">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B629">
         <v>27</v>
@@ -14860,7 +14889,7 @@
     </row>
     <row r="630" spans="1:7">
       <c r="A630">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B630">
         <v>27</v>
@@ -14883,7 +14912,7 @@
     </row>
     <row r="631" spans="1:7">
       <c r="A631">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B631">
         <v>27</v>
@@ -14906,7 +14935,7 @@
     </row>
     <row r="632" spans="1:7">
       <c r="A632">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B632">
         <v>27</v>
@@ -14929,7 +14958,7 @@
     </row>
     <row r="633" spans="1:7">
       <c r="A633">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B633">
         <v>27</v>
@@ -14952,7 +14981,7 @@
     </row>
     <row r="634" spans="1:7">
       <c r="A634">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B634">
         <v>27</v>
@@ -14975,7 +15004,7 @@
     </row>
     <row r="635" spans="1:7">
       <c r="A635">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B635">
         <v>27</v>
@@ -14998,7 +15027,7 @@
     </row>
     <row r="636" spans="1:7">
       <c r="A636">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B636">
         <v>27</v>
@@ -15021,7 +15050,7 @@
     </row>
     <row r="637" spans="1:7">
       <c r="A637">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B637">
         <v>27</v>
@@ -15044,7 +15073,7 @@
     </row>
     <row r="638" spans="1:7">
       <c r="A638">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B638">
         <v>27</v>
@@ -15067,7 +15096,7 @@
     </row>
     <row r="639" spans="1:7">
       <c r="A639">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B639">
         <v>27</v>
@@ -15090,7 +15119,7 @@
     </row>
     <row r="640" spans="1:7">
       <c r="A640">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B640">
         <v>27</v>
@@ -15113,7 +15142,7 @@
     </row>
     <row r="641" spans="1:7">
       <c r="A641">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B641">
         <v>27</v>
@@ -15136,7 +15165,7 @@
     </row>
     <row r="642" spans="1:7">
       <c r="A642">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B642">
         <v>27</v>
@@ -15159,7 +15188,7 @@
     </row>
     <row r="643" spans="1:7">
       <c r="A643">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B643">
         <v>27</v>
@@ -15182,7 +15211,7 @@
     </row>
     <row r="644" spans="1:7">
       <c r="A644">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B644">
         <v>27</v>
@@ -15205,7 +15234,7 @@
     </row>
     <row r="645" spans="1:7">
       <c r="A645">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B645">
         <v>27</v>
@@ -15228,7 +15257,7 @@
     </row>
     <row r="646" spans="1:7">
       <c r="A646">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B646">
         <v>27</v>
@@ -15251,7 +15280,7 @@
     </row>
     <row r="647" spans="1:7">
       <c r="A647">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B647">
         <v>27</v>
@@ -15274,7 +15303,7 @@
     </row>
     <row r="648" spans="1:7">
       <c r="A648">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B648">
         <v>27</v>
@@ -15297,7 +15326,7 @@
     </row>
     <row r="649" spans="1:7">
       <c r="A649">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B649">
         <v>27</v>
@@ -15320,7 +15349,7 @@
     </row>
     <row r="650" spans="1:7">
       <c r="A650">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B650">
         <v>27</v>
@@ -15343,7 +15372,7 @@
     </row>
     <row r="651" spans="1:7">
       <c r="A651">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B651">
         <v>27</v>
@@ -15366,7 +15395,7 @@
     </row>
     <row r="652" spans="1:7">
       <c r="A652">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B652">
         <v>27</v>
@@ -15389,7 +15418,7 @@
     </row>
     <row r="653" spans="1:7">
       <c r="A653">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B653">
         <v>27</v>
@@ -15412,7 +15441,7 @@
     </row>
     <row r="654" spans="1:7">
       <c r="A654">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B654">
         <v>27</v>
@@ -15435,7 +15464,7 @@
     </row>
     <row r="655" spans="1:7">
       <c r="A655">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B655">
         <v>27</v>
@@ -15458,7 +15487,7 @@
     </row>
     <row r="656" spans="1:7">
       <c r="A656">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B656">
         <v>27</v>
@@ -15481,7 +15510,7 @@
     </row>
     <row r="657" spans="1:7">
       <c r="A657">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B657">
         <v>27</v>
@@ -15504,7 +15533,7 @@
     </row>
     <row r="658" spans="1:7">
       <c r="A658">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B658">
         <v>27</v>
@@ -15527,7 +15556,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B659">
         <v>27</v>
@@ -15550,7 +15579,7 @@
     </row>
     <row r="660" spans="1:7">
       <c r="A660">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B660">
         <v>27</v>
@@ -15573,7 +15602,7 @@
     </row>
     <row r="661" spans="1:7">
       <c r="A661">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B661">
         <v>27</v>
@@ -15596,7 +15625,7 @@
     </row>
     <row r="662" spans="1:7">
       <c r="A662">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B662">
         <v>27</v>
@@ -15619,7 +15648,7 @@
     </row>
     <row r="663" spans="1:7">
       <c r="A663">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B663">
         <v>27</v>
@@ -15642,7 +15671,7 @@
     </row>
     <row r="664" spans="1:7">
       <c r="A664">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B664">
         <v>27</v>
@@ -15665,7 +15694,7 @@
     </row>
     <row r="665" spans="1:7">
       <c r="A665">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B665">
         <v>27</v>
@@ -15688,7 +15717,7 @@
     </row>
     <row r="666" spans="1:7">
       <c r="A666">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B666">
         <v>27</v>
@@ -15711,7 +15740,7 @@
     </row>
     <row r="667" spans="1:7">
       <c r="A667">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B667">
         <v>27</v>
@@ -15734,7 +15763,7 @@
     </row>
     <row r="668" spans="1:7">
       <c r="A668">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B668">
         <v>27</v>
@@ -15757,7 +15786,7 @@
     </row>
     <row r="669" spans="1:7">
       <c r="A669">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B669">
         <v>27</v>
@@ -15780,7 +15809,7 @@
     </row>
     <row r="670" spans="1:7">
       <c r="A670">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B670">
         <v>27</v>
@@ -15803,7 +15832,7 @@
     </row>
     <row r="671" spans="1:7">
       <c r="A671">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B671">
         <v>27</v>
@@ -15826,7 +15855,7 @@
     </row>
     <row r="672" spans="1:7">
       <c r="A672">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B672">
         <v>27</v>
@@ -15849,7 +15878,7 @@
     </row>
     <row r="673" spans="1:7">
       <c r="A673">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B673">
         <v>27</v>
@@ -15872,7 +15901,7 @@
     </row>
     <row r="674" spans="1:7">
       <c r="A674">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B674">
         <v>27</v>
@@ -15895,7 +15924,7 @@
     </row>
     <row r="675" spans="1:7">
       <c r="A675">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B675">
         <v>27</v>
@@ -15918,7 +15947,7 @@
     </row>
     <row r="676" spans="1:7">
       <c r="A676">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B676">
         <v>27</v>
@@ -15941,7 +15970,7 @@
     </row>
     <row r="677" spans="1:7">
       <c r="A677">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B677">
         <v>27</v>
@@ -15964,7 +15993,7 @@
     </row>
     <row r="678" spans="1:7">
       <c r="A678">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B678">
         <v>27</v>
@@ -15987,7 +16016,7 @@
     </row>
     <row r="679" spans="1:7">
       <c r="A679">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B679">
         <v>27</v>
@@ -16010,7 +16039,7 @@
     </row>
     <row r="680" spans="1:7">
       <c r="A680">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B680">
         <v>27</v>
@@ -16033,7 +16062,7 @@
     </row>
     <row r="681" spans="1:7">
       <c r="A681">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B681">
         <v>27</v>
@@ -16056,7 +16085,7 @@
     </row>
     <row r="682" spans="1:7">
       <c r="A682">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B682">
         <v>27</v>
@@ -16079,7 +16108,7 @@
     </row>
     <row r="683" spans="1:7">
       <c r="A683">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B683">
         <v>27</v>
@@ -16102,7 +16131,7 @@
     </row>
     <row r="684" spans="1:7">
       <c r="A684">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B684">
         <v>27</v>
@@ -16125,7 +16154,7 @@
     </row>
     <row r="685" spans="1:7">
       <c r="A685">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B685">
         <v>27</v>
@@ -16148,7 +16177,7 @@
     </row>
     <row r="686" spans="1:7">
       <c r="A686">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B686">
         <v>27</v>
@@ -16171,7 +16200,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B687">
         <v>27</v>
@@ -16194,7 +16223,7 @@
     </row>
     <row r="688" spans="1:7">
       <c r="A688">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B688">
         <v>27</v>
@@ -16217,7 +16246,7 @@
     </row>
     <row r="689" spans="1:7">
       <c r="A689">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B689">
         <v>27</v>
@@ -16240,7 +16269,7 @@
     </row>
     <row r="690" spans="1:7">
       <c r="A690">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B690">
         <v>27</v>
@@ -16263,7 +16292,7 @@
     </row>
     <row r="691" spans="1:7">
       <c r="A691">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B691">
         <v>27</v>
@@ -16286,7 +16315,7 @@
     </row>
     <row r="692" spans="1:7">
       <c r="A692">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B692">
         <v>27</v>
@@ -16309,7 +16338,7 @@
     </row>
     <row r="693" spans="1:7">
       <c r="A693">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B693">
         <v>27</v>
@@ -16332,7 +16361,7 @@
     </row>
     <row r="694" spans="1:7">
       <c r="A694">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B694">
         <v>27</v>
@@ -16355,7 +16384,7 @@
     </row>
     <row r="695" spans="1:7">
       <c r="A695">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B695">
         <v>27</v>
@@ -16378,7 +16407,7 @@
     </row>
     <row r="696" spans="1:7">
       <c r="A696">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B696">
         <v>27</v>
@@ -16401,7 +16430,7 @@
     </row>
     <row r="697" spans="1:7">
       <c r="A697">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B697">
         <v>27</v>
@@ -16424,7 +16453,7 @@
     </row>
     <row r="698" spans="1:7">
       <c r="A698">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B698">
         <v>27</v>
@@ -16447,7 +16476,7 @@
     </row>
     <row r="699" spans="1:7">
       <c r="A699">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B699">
         <v>27</v>
@@ -16470,7 +16499,7 @@
     </row>
     <row r="700" spans="1:7">
       <c r="A700">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B700">
         <v>27</v>
@@ -16493,7 +16522,7 @@
     </row>
     <row r="701" spans="1:7">
       <c r="A701">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B701">
         <v>27</v>
@@ -16516,7 +16545,7 @@
     </row>
     <row r="702" spans="1:7">
       <c r="A702">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B702">
         <v>27</v>
@@ -16539,7 +16568,7 @@
     </row>
     <row r="703" spans="1:7">
       <c r="A703">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B703">
         <v>27</v>
@@ -16562,7 +16591,7 @@
     </row>
     <row r="704" spans="1:7">
       <c r="A704">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B704">
         <v>27</v>
@@ -16585,7 +16614,7 @@
     </row>
     <row r="705" spans="1:7">
       <c r="A705">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B705">
         <v>27</v>
@@ -16608,7 +16637,7 @@
     </row>
     <row r="706" spans="1:7">
       <c r="A706">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B706">
         <v>27</v>
@@ -16631,7 +16660,7 @@
     </row>
     <row r="707" spans="1:7">
       <c r="A707">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B707">
         <v>27</v>
@@ -16654,7 +16683,7 @@
     </row>
     <row r="708" spans="1:7">
       <c r="A708">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B708">
         <v>27</v>
@@ -16677,7 +16706,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B709">
         <v>27</v>
@@ -16700,7 +16729,7 @@
     </row>
     <row r="710" spans="1:7">
       <c r="A710">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B710">
         <v>27</v>
@@ -16723,7 +16752,7 @@
     </row>
     <row r="711" spans="1:7">
       <c r="A711">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B711">
         <v>27</v>
@@ -16746,7 +16775,7 @@
     </row>
     <row r="712" spans="1:7">
       <c r="A712">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B712">
         <v>27</v>
@@ -16769,7 +16798,7 @@
     </row>
     <row r="713" spans="1:7">
       <c r="A713">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B713">
         <v>27</v>
@@ -16792,7 +16821,7 @@
     </row>
     <row r="714" spans="1:7">
       <c r="A714">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B714">
         <v>27</v>
@@ -16815,7 +16844,7 @@
     </row>
     <row r="715" spans="1:7">
       <c r="A715">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B715">
         <v>27</v>
@@ -16838,7 +16867,7 @@
     </row>
     <row r="716" spans="1:7">
       <c r="A716">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B716">
         <v>27</v>
@@ -16861,7 +16890,7 @@
     </row>
     <row r="717" spans="1:7">
       <c r="A717">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B717">
         <v>27</v>
@@ -16884,7 +16913,7 @@
     </row>
     <row r="718" spans="1:7">
       <c r="A718">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B718">
         <v>27</v>
@@ -16907,7 +16936,7 @@
     </row>
     <row r="719" spans="1:7">
       <c r="A719">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B719">
         <v>27</v>
@@ -16930,7 +16959,7 @@
     </row>
     <row r="720" spans="1:7">
       <c r="A720">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B720">
         <v>27</v>
@@ -16953,7 +16982,7 @@
     </row>
     <row r="721" spans="1:7">
       <c r="A721">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B721">
         <v>27</v>
@@ -16976,7 +17005,7 @@
     </row>
     <row r="722" spans="1:7">
       <c r="A722">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B722">
         <v>27</v>
@@ -16999,7 +17028,7 @@
     </row>
     <row r="723" spans="1:7">
       <c r="A723">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B723">
         <v>27</v>
@@ -17022,7 +17051,7 @@
     </row>
     <row r="724" spans="1:7">
       <c r="A724">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B724">
         <v>27</v>
@@ -17045,7 +17074,7 @@
     </row>
     <row r="725" spans="1:7">
       <c r="A725">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B725">
         <v>27</v>
@@ -17068,7 +17097,7 @@
     </row>
     <row r="726" spans="1:7">
       <c r="A726">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B726">
         <v>27</v>
@@ -17091,7 +17120,7 @@
     </row>
     <row r="727" spans="1:7">
       <c r="A727">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B727">
         <v>27</v>
@@ -17114,7 +17143,7 @@
     </row>
     <row r="728" spans="1:7">
       <c r="A728">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B728">
         <v>27</v>
@@ -17137,7 +17166,7 @@
     </row>
     <row r="729" spans="1:7">
       <c r="A729">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B729">
         <v>27</v>
@@ -17160,7 +17189,7 @@
     </row>
     <row r="730" spans="1:7">
       <c r="A730">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B730">
         <v>27</v>
@@ -17183,7 +17212,7 @@
     </row>
     <row r="731" spans="1:7">
       <c r="A731">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B731">
         <v>27</v>
@@ -17206,7 +17235,7 @@
     </row>
     <row r="732" spans="1:7">
       <c r="A732">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B732">
         <v>27</v>
@@ -17229,7 +17258,7 @@
     </row>
     <row r="733" spans="1:7">
       <c r="A733">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B733">
         <v>27</v>
@@ -17252,7 +17281,7 @@
     </row>
     <row r="734" spans="1:7">
       <c r="A734">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B734">
         <v>27</v>
@@ -17275,7 +17304,7 @@
     </row>
     <row r="735" spans="1:7">
       <c r="A735">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B735">
         <v>27</v>
@@ -17298,7 +17327,7 @@
     </row>
     <row r="736" spans="1:7">
       <c r="A736">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B736">
         <v>27</v>
@@ -17321,7 +17350,7 @@
     </row>
     <row r="737" spans="1:7">
       <c r="A737">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B737">
         <v>27</v>
@@ -17344,7 +17373,7 @@
     </row>
     <row r="738" spans="1:7">
       <c r="A738">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B738">
         <v>27</v>
@@ -17367,7 +17396,7 @@
     </row>
     <row r="739" spans="1:7">
       <c r="A739">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B739">
         <v>27</v>
@@ -17390,7 +17419,7 @@
     </row>
     <row r="740" spans="1:7">
       <c r="A740">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B740">
         <v>27</v>
@@ -17413,7 +17442,7 @@
     </row>
     <row r="741" spans="1:7">
       <c r="A741">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B741">
         <v>27</v>
@@ -17436,7 +17465,7 @@
     </row>
     <row r="742" spans="1:7">
       <c r="A742">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B742">
         <v>27</v>
@@ -17459,7 +17488,7 @@
     </row>
     <row r="743" spans="1:7">
       <c r="A743">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B743">
         <v>27</v>
@@ -17482,7 +17511,7 @@
     </row>
     <row r="744" spans="1:7">
       <c r="A744">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B744">
         <v>27</v>
@@ -17505,7 +17534,7 @@
     </row>
     <row r="745" spans="1:7">
       <c r="A745">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B745">
         <v>27</v>
@@ -17528,7 +17557,7 @@
     </row>
     <row r="746" spans="1:7">
       <c r="A746">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B746">
         <v>27</v>
@@ -17551,7 +17580,7 @@
     </row>
     <row r="747" spans="1:7">
       <c r="A747">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B747">
         <v>27</v>
@@ -17574,7 +17603,7 @@
     </row>
     <row r="748" spans="1:7">
       <c r="A748">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B748">
         <v>27</v>
@@ -17597,7 +17626,7 @@
     </row>
     <row r="749" spans="1:7">
       <c r="A749">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B749">
         <v>27</v>
@@ -17620,7 +17649,7 @@
     </row>
     <row r="750" spans="1:7">
       <c r="A750">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B750">
         <v>27</v>
@@ -17643,7 +17672,7 @@
     </row>
     <row r="751" spans="1:7">
       <c r="A751">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B751">
         <v>27</v>
@@ -17666,7 +17695,7 @@
     </row>
     <row r="752" spans="1:7">
       <c r="A752">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B752">
         <v>27</v>
@@ -17689,7 +17718,7 @@
     </row>
     <row r="753" spans="1:7">
       <c r="A753">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B753">
         <v>27</v>
@@ -17712,7 +17741,7 @@
     </row>
     <row r="754" spans="1:7">
       <c r="A754">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B754">
         <v>27</v>
@@ -17735,7 +17764,7 @@
     </row>
     <row r="755" spans="1:7">
       <c r="A755">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B755">
         <v>27</v>
@@ -17758,7 +17787,7 @@
     </row>
     <row r="756" spans="1:7">
       <c r="A756">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B756">
         <v>27</v>
@@ -17781,7 +17810,7 @@
     </row>
     <row r="757" spans="1:7">
       <c r="A757">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B757">
         <v>27</v>
@@ -17804,7 +17833,7 @@
     </row>
     <row r="758" spans="1:7">
       <c r="A758">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B758">
         <v>27</v>
@@ -17827,7 +17856,7 @@
     </row>
     <row r="759" spans="1:7">
       <c r="A759">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B759">
         <v>27</v>
@@ -17850,7 +17879,7 @@
     </row>
     <row r="760" spans="1:7">
       <c r="A760">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B760">
         <v>27</v>
@@ -17873,7 +17902,7 @@
     </row>
     <row r="761" spans="1:7">
       <c r="A761">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B761">
         <v>27</v>
@@ -17896,7 +17925,7 @@
     </row>
     <row r="762" spans="1:7">
       <c r="A762">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B762">
         <v>27</v>
@@ -17919,7 +17948,7 @@
     </row>
     <row r="763" spans="1:7">
       <c r="A763">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B763">
         <v>27</v>
@@ -17942,7 +17971,7 @@
     </row>
     <row r="764" spans="1:7">
       <c r="A764">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B764">
         <v>27</v>
@@ -17965,7 +17994,7 @@
     </row>
     <row r="765" spans="1:7">
       <c r="A765">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B765">
         <v>27</v>
@@ -17988,7 +18017,7 @@
     </row>
     <row r="766" spans="1:7">
       <c r="A766">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B766">
         <v>27</v>
@@ -18011,7 +18040,7 @@
     </row>
     <row r="767" spans="1:7">
       <c r="A767">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B767">
         <v>27</v>
@@ -18034,7 +18063,7 @@
     </row>
     <row r="768" spans="1:7">
       <c r="A768">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B768">
         <v>27</v>
@@ -18057,7 +18086,7 @@
     </row>
     <row r="769" spans="1:7">
       <c r="A769">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B769">
         <v>27</v>
@@ -18080,7 +18109,7 @@
     </row>
     <row r="770" spans="1:7">
       <c r="A770">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B770">
         <v>27</v>
@@ -18103,7 +18132,7 @@
     </row>
     <row r="771" spans="1:7">
       <c r="A771">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B771">
         <v>27</v>
@@ -18126,7 +18155,7 @@
     </row>
     <row r="772" spans="1:7">
       <c r="A772">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B772">
         <v>27</v>
@@ -18149,7 +18178,7 @@
     </row>
     <row r="773" spans="1:7">
       <c r="A773">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B773">
         <v>27</v>
@@ -18172,7 +18201,7 @@
     </row>
     <row r="774" spans="1:7">
       <c r="A774">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B774">
         <v>27</v>
@@ -18195,7 +18224,7 @@
     </row>
     <row r="775" spans="1:7">
       <c r="A775">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B775">
         <v>27</v>
@@ -18218,7 +18247,7 @@
     </row>
     <row r="776" spans="1:7">
       <c r="A776">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B776">
         <v>27</v>
@@ -18241,7 +18270,7 @@
     </row>
     <row r="777" spans="1:7">
       <c r="A777">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B777">
         <v>27</v>
@@ -18264,7 +18293,7 @@
     </row>
     <row r="778" spans="1:7">
       <c r="A778">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B778">
         <v>27</v>
@@ -18287,7 +18316,7 @@
     </row>
     <row r="779" spans="1:7">
       <c r="A779">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B779">
         <v>27</v>
@@ -18310,7 +18339,7 @@
     </row>
     <row r="780" spans="1:7">
       <c r="A780">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B780">
         <v>27</v>
@@ -18333,7 +18362,7 @@
     </row>
     <row r="781" spans="1:7">
       <c r="A781">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B781">
         <v>27</v>
@@ -18356,7 +18385,7 @@
     </row>
     <row r="782" spans="1:7">
       <c r="A782">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B782">
         <v>27</v>
@@ -18379,7 +18408,7 @@
     </row>
     <row r="783" spans="1:7">
       <c r="A783">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B783">
         <v>27</v>
@@ -18402,7 +18431,7 @@
     </row>
     <row r="784" spans="1:7">
       <c r="A784">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B784">
         <v>27</v>
@@ -18425,7 +18454,7 @@
     </row>
     <row r="785" spans="1:7">
       <c r="A785">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B785">
         <v>27</v>
@@ -18448,7 +18477,7 @@
     </row>
     <row r="786" spans="1:7">
       <c r="A786">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B786">
         <v>27</v>
@@ -18471,7 +18500,7 @@
     </row>
     <row r="787" spans="1:7">
       <c r="A787">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B787">
         <v>27</v>
@@ -18494,7 +18523,7 @@
     </row>
     <row r="788" spans="1:7">
       <c r="A788">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B788">
         <v>27</v>
@@ -18517,7 +18546,7 @@
     </row>
     <row r="789" spans="1:7">
       <c r="A789">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B789">
         <v>27</v>
@@ -18540,7 +18569,7 @@
     </row>
     <row r="790" spans="1:7">
       <c r="A790">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B790">
         <v>27</v>
@@ -18563,7 +18592,7 @@
     </row>
     <row r="791" spans="1:7">
       <c r="A791">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B791">
         <v>27</v>
@@ -18586,7 +18615,7 @@
     </row>
     <row r="792" spans="1:7">
       <c r="A792">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B792">
         <v>27</v>
@@ -18609,7 +18638,7 @@
     </row>
     <row r="793" spans="1:7">
       <c r="A793">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B793">
         <v>27</v>
@@ -18632,7 +18661,7 @@
     </row>
     <row r="794" spans="1:7">
       <c r="A794">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B794">
         <v>27</v>
@@ -18655,7 +18684,7 @@
     </row>
     <row r="795" spans="1:7">
       <c r="A795">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B795">
         <v>27</v>
@@ -18678,7 +18707,7 @@
     </row>
     <row r="796" spans="1:7">
       <c r="A796">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B796">
         <v>27</v>
@@ -18701,7 +18730,7 @@
     </row>
     <row r="797" spans="1:7">
       <c r="A797">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B797">
         <v>27</v>
@@ -18724,7 +18753,7 @@
     </row>
     <row r="798" spans="1:7">
       <c r="A798">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B798">
         <v>27</v>
@@ -18747,7 +18776,7 @@
     </row>
     <row r="799" spans="1:7">
       <c r="A799">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B799">
         <v>27</v>
@@ -18770,7 +18799,7 @@
     </row>
     <row r="800" spans="1:7">
       <c r="A800">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B800">
         <v>27</v>
@@ -18793,7 +18822,7 @@
     </row>
     <row r="801" spans="1:7">
       <c r="A801">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B801">
         <v>27</v>
@@ -18816,7 +18845,7 @@
     </row>
     <row r="802" spans="1:7">
       <c r="A802">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B802">
         <v>27</v>
@@ -18839,7 +18868,7 @@
     </row>
     <row r="803" spans="1:7">
       <c r="A803">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B803">
         <v>27</v>
@@ -18862,7 +18891,7 @@
     </row>
     <row r="804" spans="1:7">
       <c r="A804">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B804">
         <v>27</v>
@@ -18885,7 +18914,7 @@
     </row>
     <row r="805" spans="1:7">
       <c r="A805">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B805">
         <v>27</v>
@@ -18908,7 +18937,7 @@
     </row>
     <row r="806" spans="1:7">
       <c r="A806">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B806">
         <v>27</v>
@@ -18931,7 +18960,7 @@
     </row>
     <row r="807" spans="1:7">
       <c r="A807">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B807">
         <v>27</v>
@@ -18954,7 +18983,7 @@
     </row>
     <row r="808" spans="1:7">
       <c r="A808">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B808">
         <v>27</v>
@@ -18977,7 +19006,7 @@
     </row>
     <row r="809" spans="1:7">
       <c r="A809">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B809">
         <v>27</v>
@@ -19000,7 +19029,7 @@
     </row>
     <row r="810" spans="1:7">
       <c r="A810">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B810">
         <v>27</v>
@@ -19023,7 +19052,7 @@
     </row>
     <row r="811" spans="1:7">
       <c r="A811">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B811">
         <v>27</v>
@@ -19046,7 +19075,7 @@
     </row>
     <row r="812" spans="1:7">
       <c r="A812">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B812">
         <v>27</v>
@@ -19069,7 +19098,7 @@
     </row>
     <row r="813" spans="1:7">
       <c r="A813">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B813">
         <v>27</v>
@@ -19092,7 +19121,7 @@
     </row>
     <row r="814" spans="1:7">
       <c r="A814">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B814">
         <v>27</v>
@@ -19115,7 +19144,7 @@
     </row>
     <row r="815" spans="1:7">
       <c r="A815">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B815">
         <v>27</v>
@@ -19138,7 +19167,7 @@
     </row>
     <row r="816" spans="1:7">
       <c r="A816">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B816">
         <v>27</v>
@@ -19161,7 +19190,7 @@
     </row>
     <row r="817" spans="1:7">
       <c r="A817">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B817">
         <v>27</v>
@@ -19184,7 +19213,7 @@
     </row>
     <row r="818" spans="1:7">
       <c r="A818">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B818">
         <v>27</v>
@@ -19207,7 +19236,7 @@
     </row>
     <row r="819" spans="1:7">
       <c r="A819">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B819">
         <v>27</v>
@@ -19230,7 +19259,7 @@
     </row>
     <row r="820" spans="1:7">
       <c r="A820">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B820">
         <v>27</v>
@@ -19253,7 +19282,7 @@
     </row>
     <row r="821" spans="1:7">
       <c r="A821">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B821">
         <v>27</v>
@@ -19276,7 +19305,7 @@
     </row>
     <row r="822" spans="1:7">
       <c r="A822">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B822">
         <v>27</v>
@@ -19299,7 +19328,7 @@
     </row>
     <row r="823" spans="1:7">
       <c r="A823">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B823">
         <v>27</v>
@@ -19322,7 +19351,7 @@
     </row>
     <row r="824" spans="1:7">
       <c r="A824">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B824">
         <v>27</v>
@@ -19345,7 +19374,7 @@
     </row>
     <row r="825" spans="1:7">
       <c r="A825">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B825">
         <v>27</v>
@@ -19368,7 +19397,7 @@
     </row>
     <row r="826" spans="1:7">
       <c r="A826">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B826">
         <v>27</v>
@@ -19391,7 +19420,7 @@
     </row>
     <row r="827" spans="1:7">
       <c r="A827">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B827">
         <v>27</v>
@@ -19414,7 +19443,7 @@
     </row>
     <row r="828" spans="1:7">
       <c r="A828">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B828">
         <v>27</v>
@@ -19437,7 +19466,7 @@
     </row>
     <row r="829" spans="1:7">
       <c r="A829">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B829">
         <v>27</v>
@@ -19460,7 +19489,7 @@
     </row>
     <row r="830" spans="1:7">
       <c r="A830">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B830">
         <v>27</v>
@@ -19483,7 +19512,7 @@
     </row>
     <row r="831" spans="1:7">
       <c r="A831">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B831">
         <v>27</v>
@@ -19506,7 +19535,7 @@
     </row>
     <row r="832" spans="1:7">
       <c r="A832">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B832">
         <v>27</v>
@@ -19529,7 +19558,7 @@
     </row>
     <row r="833" spans="1:7">
       <c r="A833">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B833">
         <v>27</v>
@@ -19552,7 +19581,7 @@
     </row>
     <row r="834" spans="1:7">
       <c r="A834">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B834">
         <v>27</v>
@@ -19575,7 +19604,7 @@
     </row>
     <row r="835" spans="1:7">
       <c r="A835">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B835">
         <v>27</v>
@@ -19598,7 +19627,7 @@
     </row>
     <row r="836" spans="1:7">
       <c r="A836">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B836">
         <v>27</v>
@@ -19621,7 +19650,7 @@
     </row>
     <row r="837" spans="1:7">
       <c r="A837">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B837">
         <v>27</v>
@@ -19644,7 +19673,7 @@
     </row>
     <row r="838" spans="1:7">
       <c r="A838">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B838">
         <v>27</v>
@@ -19667,7 +19696,7 @@
     </row>
     <row r="839" spans="1:7">
       <c r="A839">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B839">
         <v>27</v>
@@ -19690,7 +19719,7 @@
     </row>
     <row r="840" spans="1:7">
       <c r="A840">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B840">
         <v>27</v>
@@ -19713,7 +19742,7 @@
     </row>
     <row r="841" spans="1:7">
       <c r="A841">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B841">
         <v>27</v>
@@ -19736,7 +19765,7 @@
     </row>
     <row r="842" spans="1:7">
       <c r="A842">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B842">
         <v>27</v>
@@ -19759,7 +19788,7 @@
     </row>
     <row r="843" spans="1:7">
       <c r="A843">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B843">
         <v>27</v>
@@ -19782,7 +19811,7 @@
     </row>
     <row r="844" spans="1:7">
       <c r="A844">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B844">
         <v>27</v>
@@ -19805,7 +19834,7 @@
     </row>
     <row r="845" spans="1:7">
       <c r="A845">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B845">
         <v>27</v>
@@ -19828,7 +19857,7 @@
     </row>
     <row r="846" spans="1:7">
       <c r="A846">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B846">
         <v>27</v>
@@ -19851,7 +19880,7 @@
     </row>
     <row r="847" spans="1:7">
       <c r="A847">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B847">
         <v>27</v>
@@ -19874,7 +19903,7 @@
     </row>
     <row r="848" spans="1:7">
       <c r="A848">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B848">
         <v>27</v>
@@ -19897,7 +19926,7 @@
     </row>
     <row r="849" spans="1:7">
       <c r="A849">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B849">
         <v>27</v>
@@ -19920,7 +19949,7 @@
     </row>
     <row r="850" spans="1:7">
       <c r="A850">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B850">
         <v>39</v>
@@ -19943,7 +19972,7 @@
     </row>
     <row r="851" spans="1:7">
       <c r="A851">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B851">
         <v>39</v>
@@ -19966,7 +19995,7 @@
     </row>
     <row r="852" spans="1:7">
       <c r="A852">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B852">
         <v>39</v>
@@ -19989,7 +20018,7 @@
     </row>
     <row r="853" spans="1:7">
       <c r="A853">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B853">
         <v>39</v>
@@ -20012,7 +20041,7 @@
     </row>
     <row r="854" spans="1:7">
       <c r="A854">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B854">
         <v>39</v>
@@ -20035,7 +20064,7 @@
     </row>
     <row r="855" spans="1:7">
       <c r="A855">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B855">
         <v>39</v>
@@ -20058,7 +20087,7 @@
     </row>
     <row r="856" spans="1:7">
       <c r="A856">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B856">
         <v>39</v>
@@ -20081,7 +20110,7 @@
     </row>
     <row r="857" spans="1:7">
       <c r="A857">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B857">
         <v>39</v>
@@ -20104,7 +20133,7 @@
     </row>
     <row r="858" spans="1:7">
       <c r="A858">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B858">
         <v>39</v>
@@ -20127,7 +20156,7 @@
     </row>
     <row r="859" spans="1:7">
       <c r="A859">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B859">
         <v>39</v>
@@ -20150,7 +20179,7 @@
     </row>
     <row r="860" spans="1:7">
       <c r="A860">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B860">
         <v>39</v>
@@ -20173,7 +20202,7 @@
     </row>
     <row r="861" spans="1:7">
       <c r="A861">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B861">
         <v>39</v>
@@ -20196,7 +20225,7 @@
     </row>
     <row r="862" spans="1:7">
       <c r="A862">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B862">
         <v>39</v>
@@ -20219,7 +20248,7 @@
     </row>
     <row r="863" spans="1:7">
       <c r="A863">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B863">
         <v>39</v>
@@ -20242,7 +20271,7 @@
     </row>
     <row r="864" spans="1:7">
       <c r="A864">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B864">
         <v>39</v>
@@ -20265,7 +20294,7 @@
     </row>
     <row r="865" spans="1:7">
       <c r="A865">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B865">
         <v>39</v>
@@ -20288,7 +20317,7 @@
     </row>
     <row r="866" spans="1:7">
       <c r="A866">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B866">
         <v>39</v>
@@ -20311,7 +20340,7 @@
     </row>
     <row r="867" spans="1:7">
       <c r="A867">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B867">
         <v>39</v>
@@ -20334,7 +20363,7 @@
     </row>
     <row r="868" spans="1:7">
       <c r="A868">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B868">
         <v>39</v>
@@ -20357,7 +20386,7 @@
     </row>
     <row r="869" spans="1:7">
       <c r="A869">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B869">
         <v>39</v>
@@ -20380,7 +20409,7 @@
     </row>
     <row r="870" spans="1:7">
       <c r="A870">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B870">
         <v>39</v>
@@ -20403,7 +20432,7 @@
     </row>
     <row r="871" spans="1:7">
       <c r="A871">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B871">
         <v>39</v>
@@ -20426,7 +20455,7 @@
     </row>
     <row r="872" spans="1:7">
       <c r="A872">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B872">
         <v>39</v>
@@ -20449,7 +20478,7 @@
     </row>
     <row r="873" spans="1:7">
       <c r="A873">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B873">
         <v>39</v>
@@ -20472,7 +20501,7 @@
     </row>
     <row r="874" spans="1:7">
       <c r="A874">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B874">
         <v>39</v>
@@ -20495,7 +20524,7 @@
     </row>
     <row r="875" spans="1:7">
       <c r="A875">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B875">
         <v>39</v>
@@ -20518,7 +20547,7 @@
     </row>
     <row r="876" spans="1:7">
       <c r="A876">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B876">
         <v>39</v>
@@ -20541,7 +20570,7 @@
     </row>
     <row r="877" spans="1:7">
       <c r="A877">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B877">
         <v>39</v>
@@ -20564,7 +20593,7 @@
     </row>
     <row r="878" spans="1:7">
       <c r="A878">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B878">
         <v>39</v>
@@ -20587,7 +20616,7 @@
     </row>
     <row r="879" spans="1:7">
       <c r="A879">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B879">
         <v>39</v>
@@ -20610,7 +20639,7 @@
     </row>
     <row r="880" spans="1:7">
       <c r="A880">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B880">
         <v>39</v>
@@ -20633,7 +20662,7 @@
     </row>
     <row r="881" spans="1:7">
       <c r="A881">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B881">
         <v>39</v>
@@ -20656,7 +20685,7 @@
     </row>
     <row r="882" spans="1:7">
       <c r="A882">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B882">
         <v>39</v>
@@ -20679,7 +20708,7 @@
     </row>
     <row r="883" spans="1:7">
       <c r="A883">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B883">
         <v>39</v>
@@ -20702,7 +20731,7 @@
     </row>
     <row r="884" spans="1:7">
       <c r="A884">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B884">
         <v>39</v>
@@ -20725,7 +20754,7 @@
     </row>
     <row r="885" spans="1:7">
       <c r="A885">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B885">
         <v>39</v>
@@ -20748,7 +20777,7 @@
     </row>
     <row r="886" spans="1:7">
       <c r="A886">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B886">
         <v>39</v>
@@ -20771,7 +20800,7 @@
     </row>
     <row r="887" spans="1:7">
       <c r="A887">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B887">
         <v>39</v>
@@ -20794,7 +20823,7 @@
     </row>
     <row r="888" spans="1:7">
       <c r="A888">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B888">
         <v>39</v>
@@ -20817,7 +20846,7 @@
     </row>
     <row r="889" spans="1:7">
       <c r="A889">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B889">
         <v>39</v>
@@ -20840,7 +20869,7 @@
     </row>
     <row r="890" spans="1:7">
       <c r="A890">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B890">
         <v>39</v>
@@ -20863,7 +20892,7 @@
     </row>
     <row r="891" spans="1:7">
       <c r="A891">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B891">
         <v>39</v>
@@ -20886,7 +20915,7 @@
     </row>
     <row r="892" spans="1:7">
       <c r="A892">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B892">
         <v>39</v>
@@ -20909,7 +20938,7 @@
     </row>
     <row r="893" spans="1:7">
       <c r="A893">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B893">
         <v>39</v>
@@ -20932,7 +20961,7 @@
     </row>
     <row r="894" spans="1:7">
       <c r="A894">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B894">
         <v>39</v>
@@ -20955,7 +20984,7 @@
     </row>
     <row r="895" spans="1:7">
       <c r="A895">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B895">
         <v>39</v>
@@ -20978,7 +21007,7 @@
     </row>
     <row r="896" spans="1:7">
       <c r="A896">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B896">
         <v>39</v>
@@ -21001,7 +21030,7 @@
     </row>
     <row r="897" spans="1:7">
       <c r="A897">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B897">
         <v>39</v>
@@ -21024,7 +21053,7 @@
     </row>
     <row r="898" spans="1:7">
       <c r="A898">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B898">
         <v>39</v>
@@ -21047,7 +21076,7 @@
     </row>
     <row r="899" spans="1:7">
       <c r="A899">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B899">
         <v>39</v>
@@ -21070,7 +21099,7 @@
     </row>
     <row r="900" spans="1:7">
       <c r="A900">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B900">
         <v>39</v>
@@ -21093,7 +21122,7 @@
     </row>
     <row r="901" spans="1:7">
       <c r="A901">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B901">
         <v>39</v>
@@ -21116,7 +21145,7 @@
     </row>
     <row r="902" spans="1:7">
       <c r="A902">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B902">
         <v>39</v>
@@ -21139,7 +21168,7 @@
     </row>
     <row r="903" spans="1:7">
       <c r="A903">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B903">
         <v>39</v>
@@ -21162,7 +21191,7 @@
     </row>
     <row r="904" spans="1:7">
       <c r="A904">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B904">
         <v>39</v>
@@ -21185,7 +21214,7 @@
     </row>
     <row r="905" spans="1:7">
       <c r="A905">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B905">
         <v>39</v>
@@ -21208,7 +21237,7 @@
     </row>
     <row r="906" spans="1:7">
       <c r="A906">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B906">
         <v>39</v>
@@ -21231,7 +21260,7 @@
     </row>
     <row r="907" spans="1:7">
       <c r="A907">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B907">
         <v>39</v>
@@ -21254,7 +21283,7 @@
     </row>
     <row r="908" spans="1:7">
       <c r="A908">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B908">
         <v>39</v>
@@ -21277,7 +21306,7 @@
     </row>
     <row r="909" spans="1:7">
       <c r="A909">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B909">
         <v>39</v>
@@ -21300,7 +21329,7 @@
     </row>
     <row r="910" spans="1:7">
       <c r="A910">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B910">
         <v>39</v>
@@ -21323,7 +21352,7 @@
     </row>
     <row r="911" spans="1:7">
       <c r="A911">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B911">
         <v>39</v>
@@ -21346,7 +21375,7 @@
     </row>
     <row r="912" spans="1:7">
       <c r="A912">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B912">
         <v>39</v>
@@ -21369,7 +21398,7 @@
     </row>
     <row r="913" spans="1:7">
       <c r="A913">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B913">
         <v>39</v>
@@ -21392,7 +21421,7 @@
     </row>
     <row r="914" spans="1:7">
       <c r="A914">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B914">
         <v>39</v>
@@ -21415,7 +21444,7 @@
     </row>
     <row r="915" spans="1:7">
       <c r="A915">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B915">
         <v>39</v>
@@ -21438,7 +21467,7 @@
     </row>
     <row r="916" spans="1:7">
       <c r="A916">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B916">
         <v>39</v>
@@ -21461,7 +21490,7 @@
     </row>
     <row r="917" spans="1:7">
       <c r="A917">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B917">
         <v>39</v>
@@ -21484,7 +21513,7 @@
     </row>
     <row r="918" spans="1:7">
       <c r="A918">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B918">
         <v>39</v>
@@ -21507,7 +21536,7 @@
     </row>
     <row r="919" spans="1:7">
       <c r="A919">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B919">
         <v>39</v>
@@ -21530,7 +21559,7 @@
     </row>
     <row r="920" spans="1:7">
       <c r="A920">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B920">
         <v>39</v>
@@ -21553,7 +21582,7 @@
     </row>
     <row r="921" spans="1:7">
       <c r="A921">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B921">
         <v>39</v>
@@ -21576,7 +21605,7 @@
     </row>
     <row r="922" spans="1:7">
       <c r="A922">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B922">
         <v>39</v>
@@ -21599,7 +21628,7 @@
     </row>
     <row r="923" spans="1:7">
       <c r="A923">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B923">
         <v>39</v>
@@ -21622,7 +21651,7 @@
     </row>
     <row r="924" spans="1:7">
       <c r="A924">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B924">
         <v>39</v>
@@ -21645,7 +21674,7 @@
     </row>
     <row r="925" spans="1:7">
       <c r="A925">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B925">
         <v>39</v>
@@ -21668,7 +21697,7 @@
     </row>
     <row r="926" spans="1:7">
       <c r="A926">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B926">
         <v>39</v>
@@ -21691,7 +21720,7 @@
     </row>
     <row r="927" spans="1:7">
       <c r="A927">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B927">
         <v>39</v>
@@ -21714,7 +21743,7 @@
     </row>
     <row r="928" spans="1:7">
       <c r="A928">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B928">
         <v>39</v>
@@ -21737,7 +21766,7 @@
     </row>
     <row r="929" spans="1:7">
       <c r="A929">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B929">
         <v>39</v>
@@ -21760,7 +21789,7 @@
     </row>
     <row r="930" spans="1:7">
       <c r="A930">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B930">
         <v>39</v>
@@ -21783,7 +21812,7 @@
     </row>
     <row r="931" spans="1:7">
       <c r="A931">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B931">
         <v>39</v>
@@ -21806,7 +21835,7 @@
     </row>
     <row r="932" spans="1:7">
       <c r="A932">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B932">
         <v>39</v>
@@ -21829,7 +21858,7 @@
     </row>
     <row r="933" spans="1:7">
       <c r="A933">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B933">
         <v>39</v>
@@ -21852,7 +21881,7 @@
     </row>
     <row r="934" spans="1:7">
       <c r="A934">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B934">
         <v>39</v>
@@ -21875,7 +21904,7 @@
     </row>
     <row r="935" spans="1:7">
       <c r="A935">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B935">
         <v>39</v>
@@ -21898,7 +21927,7 @@
     </row>
     <row r="936" spans="1:7">
       <c r="A936">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B936">
         <v>39</v>
@@ -21921,7 +21950,7 @@
     </row>
     <row r="937" spans="1:7">
       <c r="A937">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B937">
         <v>39</v>
@@ -21944,7 +21973,7 @@
     </row>
     <row r="938" spans="1:7">
       <c r="A938">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B938">
         <v>39</v>
@@ -21967,7 +21996,7 @@
     </row>
     <row r="939" spans="1:7">
       <c r="A939">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B939">
         <v>39</v>
@@ -21990,7 +22019,7 @@
     </row>
     <row r="940" spans="1:7">
       <c r="A940">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B940">
         <v>39</v>
@@ -22013,7 +22042,7 @@
     </row>
     <row r="941" spans="1:7">
       <c r="A941">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B941">
         <v>39</v>
@@ -22036,7 +22065,7 @@
     </row>
     <row r="942" spans="1:7">
       <c r="A942">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B942">
         <v>39</v>
@@ -22059,7 +22088,7 @@
     </row>
     <row r="943" spans="1:7">
       <c r="A943">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B943">
         <v>39</v>
@@ -22082,7 +22111,7 @@
     </row>
     <row r="944" spans="1:7">
       <c r="A944">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B944">
         <v>39</v>
@@ -22105,7 +22134,7 @@
     </row>
     <row r="945" spans="1:7">
       <c r="A945">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B945">
         <v>39</v>
@@ -22128,7 +22157,7 @@
     </row>
     <row r="946" spans="1:7">
       <c r="A946">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B946">
         <v>39</v>
@@ -22151,7 +22180,7 @@
     </row>
     <row r="947" spans="1:7">
       <c r="A947">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B947">
         <v>39</v>
@@ -22174,7 +22203,7 @@
     </row>
     <row r="948" spans="1:7">
       <c r="A948">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B948">
         <v>39</v>
@@ -22197,7 +22226,7 @@
     </row>
     <row r="949" spans="1:7">
       <c r="A949">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B949">
         <v>39</v>
@@ -22220,7 +22249,7 @@
     </row>
     <row r="950" spans="1:7">
       <c r="A950">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B950">
         <v>39</v>
@@ -22243,7 +22272,7 @@
     </row>
     <row r="951" spans="1:7">
       <c r="A951">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B951">
         <v>39</v>
@@ -22266,7 +22295,7 @@
     </row>
     <row r="952" spans="1:7">
       <c r="A952">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B952">
         <v>39</v>
@@ -22289,7 +22318,7 @@
     </row>
     <row r="953" spans="1:7">
       <c r="A953">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B953">
         <v>39</v>
@@ -22312,7 +22341,7 @@
     </row>
     <row r="954" spans="1:7">
       <c r="A954">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B954">
         <v>39</v>
@@ -22335,7 +22364,7 @@
     </row>
     <row r="955" spans="1:7">
       <c r="A955">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B955">
         <v>39</v>
@@ -22358,7 +22387,7 @@
     </row>
     <row r="956" spans="1:7">
       <c r="A956">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B956">
         <v>39</v>
@@ -22381,7 +22410,7 @@
     </row>
     <row r="957" spans="1:7">
       <c r="A957">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B957">
         <v>39</v>
@@ -22404,7 +22433,7 @@
     </row>
     <row r="958" spans="1:7">
       <c r="A958">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B958">
         <v>39</v>
@@ -22427,7 +22456,7 @@
     </row>
     <row r="959" spans="1:7">
       <c r="A959">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B959">
         <v>39</v>
@@ -22450,7 +22479,7 @@
     </row>
     <row r="960" spans="1:7">
       <c r="A960">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B960">
         <v>39</v>
@@ -22473,7 +22502,7 @@
     </row>
     <row r="961" spans="1:7">
       <c r="A961">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B961">
         <v>39</v>
@@ -22496,7 +22525,7 @@
     </row>
     <row r="962" spans="1:7">
       <c r="A962">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B962">
         <v>39</v>
@@ -22519,7 +22548,7 @@
     </row>
     <row r="963" spans="1:7">
       <c r="A963">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B963">
         <v>39</v>
@@ -22542,7 +22571,7 @@
     </row>
     <row r="964" spans="1:7">
       <c r="A964">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B964">
         <v>39</v>
@@ -22565,7 +22594,7 @@
     </row>
     <row r="965" spans="1:7">
       <c r="A965">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B965">
         <v>39</v>
@@ -22588,7 +22617,7 @@
     </row>
     <row r="966" spans="1:7">
       <c r="A966">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B966">
         <v>39</v>
@@ -22611,7 +22640,7 @@
     </row>
     <row r="967" spans="1:7">
       <c r="A967">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B967">
         <v>39</v>
@@ -22634,7 +22663,7 @@
     </row>
     <row r="968" spans="1:7">
       <c r="A968">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B968">
         <v>39</v>
@@ -22657,7 +22686,7 @@
     </row>
     <row r="969" spans="1:7">
       <c r="A969">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B969">
         <v>39</v>
@@ -22680,7 +22709,7 @@
     </row>
     <row r="970" spans="1:7">
       <c r="A970">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B970">
         <v>39</v>
@@ -22703,7 +22732,7 @@
     </row>
     <row r="971" spans="1:7">
       <c r="A971">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B971">
         <v>39</v>
@@ -22726,7 +22755,7 @@
     </row>
     <row r="972" spans="1:7">
       <c r="A972">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B972">
         <v>39</v>
@@ -22749,7 +22778,7 @@
     </row>
     <row r="973" spans="1:7">
       <c r="A973">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B973">
         <v>39</v>
@@ -22772,7 +22801,7 @@
     </row>
     <row r="974" spans="1:7">
       <c r="A974">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B974">
         <v>39</v>
@@ -22795,7 +22824,7 @@
     </row>
     <row r="975" spans="1:7">
       <c r="A975">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B975">
         <v>39</v>
@@ -22818,7 +22847,7 @@
     </row>
     <row r="976" spans="1:7">
       <c r="A976">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B976">
         <v>39</v>
@@ -22841,7 +22870,7 @@
     </row>
     <row r="977" spans="1:7">
       <c r="A977">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B977">
         <v>39</v>
@@ -22864,7 +22893,7 @@
     </row>
     <row r="978" spans="1:7">
       <c r="A978">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B978">
         <v>39</v>
@@ -22887,7 +22916,7 @@
     </row>
     <row r="979" spans="1:7">
       <c r="A979">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B979">
         <v>39</v>
@@ -22910,7 +22939,7 @@
     </row>
     <row r="980" spans="1:7">
       <c r="A980">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B980">
         <v>39</v>
@@ -22933,7 +22962,7 @@
     </row>
     <row r="981" spans="1:7">
       <c r="A981">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B981">
         <v>39</v>
@@ -22956,7 +22985,7 @@
     </row>
     <row r="982" spans="1:7">
       <c r="A982">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B982">
         <v>39</v>
@@ -22979,7 +23008,7 @@
     </row>
     <row r="983" spans="1:7">
       <c r="A983">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B983">
         <v>39</v>
@@ -23002,7 +23031,7 @@
     </row>
     <row r="984" spans="1:7">
       <c r="A984">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B984">
         <v>39</v>
@@ -23025,7 +23054,7 @@
     </row>
     <row r="985" spans="1:7">
       <c r="A985">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B985">
         <v>39</v>
@@ -23048,7 +23077,7 @@
     </row>
     <row r="986" spans="1:7">
       <c r="A986">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B986">
         <v>39</v>
@@ -23071,7 +23100,7 @@
     </row>
     <row r="987" spans="1:7">
       <c r="A987">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B987">
         <v>39</v>
@@ -23094,7 +23123,7 @@
     </row>
     <row r="988" spans="1:7">
       <c r="A988">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B988">
         <v>39</v>
@@ -23117,7 +23146,7 @@
     </row>
     <row r="989" spans="1:7">
       <c r="A989">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B989">
         <v>39</v>
@@ -23140,7 +23169,7 @@
     </row>
     <row r="990" spans="1:7">
       <c r="A990">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B990">
         <v>39</v>
@@ -23163,7 +23192,7 @@
     </row>
     <row r="991" spans="1:7">
       <c r="A991">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B991">
         <v>39</v>
@@ -23186,7 +23215,7 @@
     </row>
     <row r="992" spans="1:7">
       <c r="A992">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B992">
         <v>39</v>
@@ -23209,7 +23238,7 @@
     </row>
     <row r="993" spans="1:7">
       <c r="A993">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B993">
         <v>39</v>
@@ -23232,7 +23261,7 @@
     </row>
     <row r="994" spans="1:7">
       <c r="A994">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B994">
         <v>39</v>
@@ -23255,7 +23284,7 @@
     </row>
     <row r="995" spans="1:7">
       <c r="A995">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B995">
         <v>39</v>
@@ -23278,7 +23307,7 @@
     </row>
     <row r="996" spans="1:7">
       <c r="A996">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B996">
         <v>39</v>
@@ -23301,7 +23330,7 @@
     </row>
     <row r="997" spans="1:7">
       <c r="A997">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B997">
         <v>39</v>
@@ -23324,7 +23353,7 @@
     </row>
     <row r="998" spans="1:7">
       <c r="A998">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B998">
         <v>39</v>
@@ -23347,7 +23376,7 @@
     </row>
     <row r="999" spans="1:7">
       <c r="A999">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B999">
         <v>39</v>
@@ -23370,7 +23399,7 @@
     </row>
     <row r="1000" spans="1:7">
       <c r="A1000">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1000">
         <v>39</v>
@@ -23393,7 +23422,7 @@
     </row>
     <row r="1001" spans="1:7">
       <c r="A1001">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1001">
         <v>39</v>
@@ -23416,7 +23445,7 @@
     </row>
     <row r="1002" spans="1:7">
       <c r="A1002">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1002">
         <v>39</v>
@@ -23439,7 +23468,7 @@
     </row>
     <row r="1003" spans="1:7">
       <c r="A1003">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1003">
         <v>39</v>
@@ -23462,7 +23491,7 @@
     </row>
     <row r="1004" spans="1:7">
       <c r="A1004">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1004">
         <v>39</v>
@@ -23485,7 +23514,7 @@
     </row>
     <row r="1005" spans="1:7">
       <c r="A1005">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1005">
         <v>39</v>
@@ -23508,7 +23537,7 @@
     </row>
     <row r="1006" spans="1:7">
       <c r="A1006">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1006">
         <v>39</v>
@@ -23531,7 +23560,7 @@
     </row>
     <row r="1007" spans="1:7">
       <c r="A1007">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1007">
         <v>39</v>
@@ -23554,7 +23583,7 @@
     </row>
     <row r="1008" spans="1:7">
       <c r="A1008">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1008">
         <v>39</v>
@@ -23577,7 +23606,7 @@
     </row>
     <row r="1009" spans="1:7">
       <c r="A1009">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1009">
         <v>39</v>
@@ -23600,7 +23629,7 @@
     </row>
     <row r="1010" spans="1:7">
       <c r="A1010">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1010">
         <v>39</v>
@@ -23623,7 +23652,7 @@
     </row>
     <row r="1011" spans="1:7">
       <c r="A1011">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1011">
         <v>39</v>
@@ -23646,7 +23675,7 @@
     </row>
     <row r="1012" spans="1:7">
       <c r="A1012">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1012">
         <v>39</v>
@@ -23669,7 +23698,7 @@
     </row>
     <row r="1013" spans="1:7">
       <c r="A1013">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1013">
         <v>39</v>
@@ -23692,7 +23721,7 @@
     </row>
     <row r="1014" spans="1:7">
       <c r="A1014">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1014">
         <v>39</v>
@@ -23715,7 +23744,7 @@
     </row>
     <row r="1015" spans="1:7">
       <c r="A1015">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1015">
         <v>39</v>
@@ -23738,7 +23767,7 @@
     </row>
     <row r="1016" spans="1:7">
       <c r="A1016">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1016">
         <v>39</v>
@@ -23761,7 +23790,7 @@
     </row>
     <row r="1017" spans="1:7">
       <c r="A1017">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1017">
         <v>39</v>
@@ -23784,7 +23813,7 @@
     </row>
     <row r="1018" spans="1:7">
       <c r="A1018">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1018">
         <v>39</v>
@@ -23807,7 +23836,7 @@
     </row>
     <row r="1019" spans="1:7">
       <c r="A1019">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1019">
         <v>39</v>
@@ -23830,7 +23859,7 @@
     </row>
     <row r="1020" spans="1:7">
       <c r="A1020">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1020">
         <v>39</v>
@@ -23853,7 +23882,7 @@
     </row>
     <row r="1021" spans="1:7">
       <c r="A1021">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1021">
         <v>39</v>
@@ -23876,7 +23905,7 @@
     </row>
     <row r="1022" spans="1:7">
       <c r="A1022">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1022">
         <v>39</v>
@@ -23899,7 +23928,7 @@
     </row>
     <row r="1023" spans="1:7">
       <c r="A1023">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1023">
         <v>39</v>
@@ -23922,7 +23951,7 @@
     </row>
     <row r="1024" spans="1:7">
       <c r="A1024">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1024">
         <v>39</v>
@@ -23945,7 +23974,7 @@
     </row>
     <row r="1025" spans="1:7">
       <c r="A1025">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1025">
         <v>39</v>
@@ -23968,7 +23997,7 @@
     </row>
     <row r="1026" spans="1:7">
       <c r="A1026">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1026">
         <v>39</v>
@@ -23991,7 +24020,7 @@
     </row>
     <row r="1027" spans="1:7">
       <c r="A1027">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1027">
         <v>39</v>
@@ -24014,7 +24043,7 @@
     </row>
     <row r="1028" spans="1:7">
       <c r="A1028">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1028">
         <v>39</v>
@@ -24037,7 +24066,7 @@
     </row>
     <row r="1029" spans="1:7">
       <c r="A1029">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1029">
         <v>39</v>
@@ -24060,7 +24089,7 @@
     </row>
     <row r="1030" spans="1:7">
       <c r="A1030">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1030">
         <v>39</v>
@@ -24083,7 +24112,7 @@
     </row>
     <row r="1031" spans="1:7">
       <c r="A1031">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1031">
         <v>39</v>
@@ -24106,7 +24135,7 @@
     </row>
     <row r="1032" spans="1:7">
       <c r="A1032">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1032">
         <v>39</v>
@@ -24129,7 +24158,7 @@
     </row>
     <row r="1033" spans="1:7">
       <c r="A1033">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1033">
         <v>39</v>
@@ -24152,7 +24181,7 @@
     </row>
     <row r="1034" spans="1:7">
       <c r="A1034">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1034">
         <v>39</v>
@@ -24175,7 +24204,7 @@
     </row>
     <row r="1035" spans="1:7">
       <c r="A1035">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1035">
         <v>39</v>
@@ -24198,7 +24227,7 @@
     </row>
     <row r="1036" spans="1:7">
       <c r="A1036">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1036">
         <v>39</v>
@@ -24221,7 +24250,7 @@
     </row>
     <row r="1037" spans="1:7">
       <c r="A1037">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1037">
         <v>39</v>
@@ -24244,7 +24273,7 @@
     </row>
     <row r="1038" spans="1:7">
       <c r="A1038">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1038">
         <v>39</v>
@@ -24267,7 +24296,7 @@
     </row>
     <row r="1039" spans="1:7">
       <c r="A1039">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1039">
         <v>39</v>
@@ -24290,7 +24319,7 @@
     </row>
     <row r="1040" spans="1:7">
       <c r="A1040">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1040">
         <v>39</v>
@@ -24313,7 +24342,7 @@
     </row>
     <row r="1041" spans="1:7">
       <c r="A1041">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1041">
         <v>39</v>
@@ -24336,7 +24365,7 @@
     </row>
     <row r="1042" spans="1:7">
       <c r="A1042">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1042">
         <v>39</v>
@@ -24359,7 +24388,7 @@
     </row>
     <row r="1043" spans="1:7">
       <c r="A1043">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1043">
         <v>39</v>
@@ -24382,7 +24411,7 @@
     </row>
     <row r="1044" spans="1:7">
       <c r="A1044">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1044">
         <v>39</v>
@@ -24405,7 +24434,7 @@
     </row>
     <row r="1045" spans="1:7">
       <c r="A1045">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1045">
         <v>39</v>
@@ -24428,7 +24457,7 @@
     </row>
     <row r="1046" spans="1:7">
       <c r="A1046">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1046">
         <v>39</v>
@@ -24451,7 +24480,7 @@
     </row>
     <row r="1047" spans="1:7">
       <c r="A1047">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1047">
         <v>39</v>
@@ -24474,7 +24503,7 @@
     </row>
     <row r="1048" spans="1:7">
       <c r="A1048">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1048">
         <v>39</v>
@@ -24497,7 +24526,7 @@
     </row>
     <row r="1049" spans="1:7">
       <c r="A1049">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1049">
         <v>39</v>
@@ -24520,7 +24549,7 @@
     </row>
     <row r="1050" spans="1:7">
       <c r="A1050">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1050">
         <v>39</v>
@@ -24543,7 +24572,7 @@
     </row>
     <row r="1051" spans="1:7">
       <c r="A1051">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1051">
         <v>39</v>
@@ -24566,7 +24595,7 @@
     </row>
     <row r="1052" spans="1:7">
       <c r="A1052">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1052">
         <v>39</v>
@@ -24589,7 +24618,7 @@
     </row>
     <row r="1053" spans="1:7">
       <c r="A1053">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1053">
         <v>39</v>
@@ -24612,7 +24641,7 @@
     </row>
     <row r="1054" spans="1:7">
       <c r="A1054">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1054">
         <v>39</v>
@@ -24635,7 +24664,7 @@
     </row>
     <row r="1055" spans="1:7">
       <c r="A1055">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1055">
         <v>39</v>
@@ -24658,7 +24687,7 @@
     </row>
     <row r="1056" spans="1:7">
       <c r="A1056">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1056">
         <v>39</v>
@@ -24681,7 +24710,7 @@
     </row>
     <row r="1057" spans="1:7">
       <c r="A1057">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1057">
         <v>39</v>
@@ -24704,7 +24733,7 @@
     </row>
     <row r="1058" spans="1:7">
       <c r="A1058">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1058">
         <v>39</v>
@@ -24727,7 +24756,7 @@
     </row>
     <row r="1059" spans="1:7">
       <c r="A1059">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1059">
         <v>39</v>
@@ -24750,7 +24779,7 @@
     </row>
     <row r="1060" spans="1:7">
       <c r="A1060">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1060">
         <v>39</v>
@@ -24773,7 +24802,7 @@
     </row>
     <row r="1061" spans="1:7">
       <c r="A1061">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1061">
         <v>39</v>
@@ -24796,7 +24825,7 @@
     </row>
     <row r="1062" spans="1:7">
       <c r="A1062">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1062">
         <v>39</v>
@@ -24819,7 +24848,7 @@
     </row>
     <row r="1063" spans="1:7">
       <c r="A1063">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1063">
         <v>39</v>
@@ -24842,7 +24871,7 @@
     </row>
     <row r="1064" spans="1:7">
       <c r="A1064">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1064">
         <v>39</v>
@@ -24865,7 +24894,7 @@
     </row>
     <row r="1065" spans="1:7">
       <c r="A1065">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1065">
         <v>39</v>
@@ -24888,7 +24917,7 @@
     </row>
     <row r="1066" spans="1:7">
       <c r="A1066">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1066">
         <v>39</v>
@@ -24911,7 +24940,7 @@
     </row>
     <row r="1067" spans="1:7">
       <c r="A1067">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1067">
         <v>39</v>
@@ -24934,7 +24963,7 @@
     </row>
     <row r="1068" spans="1:7">
       <c r="A1068">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1068">
         <v>39</v>
@@ -24957,7 +24986,7 @@
     </row>
     <row r="1069" spans="1:7">
       <c r="A1069">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1069">
         <v>39</v>
@@ -24980,7 +25009,7 @@
     </row>
     <row r="1070" spans="1:7">
       <c r="A1070">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1070">
         <v>39</v>
@@ -25003,7 +25032,7 @@
     </row>
     <row r="1071" spans="1:7">
       <c r="A1071">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1071">
         <v>39</v>
@@ -25026,7 +25055,7 @@
     </row>
     <row r="1072" spans="1:7">
       <c r="A1072">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1072">
         <v>39</v>
@@ -25049,7 +25078,7 @@
     </row>
     <row r="1073" spans="1:7">
       <c r="A1073">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1073">
         <v>39</v>
@@ -25072,7 +25101,7 @@
     </row>
     <row r="1074" spans="1:7">
       <c r="A1074">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1074">
         <v>39</v>
@@ -25095,7 +25124,7 @@
     </row>
     <row r="1075" spans="1:7">
       <c r="A1075">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1075">
         <v>39</v>
@@ -25118,7 +25147,7 @@
     </row>
     <row r="1076" spans="1:7">
       <c r="A1076">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1076">
         <v>39</v>
@@ -25141,7 +25170,7 @@
     </row>
     <row r="1077" spans="1:7">
       <c r="A1077">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1077">
         <v>39</v>
@@ -25164,7 +25193,7 @@
     </row>
     <row r="1078" spans="1:7">
       <c r="A1078">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1078">
         <v>39</v>
@@ -25187,7 +25216,7 @@
     </row>
     <row r="1079" spans="1:7">
       <c r="A1079">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1079">
         <v>39</v>
@@ -25210,7 +25239,7 @@
     </row>
     <row r="1080" spans="1:7">
       <c r="A1080">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1080">
         <v>39</v>
@@ -25233,7 +25262,7 @@
     </row>
     <row r="1081" spans="1:7">
       <c r="A1081">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1081">
         <v>39</v>
@@ -25256,7 +25285,7 @@
     </row>
     <row r="1082" spans="1:7">
       <c r="A1082">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1082">
         <v>39</v>
@@ -25279,7 +25308,7 @@
     </row>
     <row r="1083" spans="1:7">
       <c r="A1083">
-        <v>493.67700000000002</v>
+        <v>0.49367700000000003</v>
       </c>
       <c r="B1083">
         <v>39</v>
@@ -25306,24 +25335,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
